--- a/datasets/questionset.xlsx
+++ b/datasets/questionset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\PycharmProjects\TelegramBot\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\MisaTelegramBot\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$434</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="394">
   <si>
     <t>text</t>
   </si>
@@ -324,17 +327,890 @@
     <t>Вопрос</t>
   </si>
   <si>
-    <t>Вопрос о погоде</t>
-  </si>
-  <si>
-    <t>Вопрос про дела</t>
+    <t>фауфп</t>
+  </si>
+  <si>
+    <t>холодно</t>
+  </si>
+  <si>
+    <t>прохладно</t>
+  </si>
+  <si>
+    <t>знойно</t>
+  </si>
+  <si>
+    <t>дратуть</t>
+  </si>
+  <si>
+    <t>гавнопад</t>
+  </si>
+  <si>
+    <t>ку</t>
+  </si>
+  <si>
+    <t>✋</t>
+  </si>
+  <si>
+    <t>прифок</t>
+  </si>
+  <si>
+    <t>прив</t>
+  </si>
+  <si>
+    <t>хай</t>
+  </si>
+  <si>
+    <t>приет</t>
+  </si>
+  <si>
+    <t>крч скачать нейронка распознавание фотка</t>
+  </si>
+  <si>
+    <t>москва хуйня</t>
+  </si>
+  <si>
+    <t>поход класс перевешиает</t>
+  </si>
+  <si>
+    <t>б просто финансы беспечивать простой человек интересный</t>
+  </si>
+  <si>
+    <t>никита скидывать робот макрос код макрос хотябать выкладывать</t>
+  </si>
+  <si>
+    <t>очки удар накинуть наверное стерлинг несколько удушать взять</t>
+  </si>
+  <si>
+    <t>бакалавр манистра</t>
+  </si>
+  <si>
+    <t>инф владеть даж расширение мочь давать комментарий</t>
+  </si>
+  <si>
+    <t>тупой</t>
+  </si>
+  <si>
+    <t>поход просто конец шарить</t>
+  </si>
+  <si>
+    <t>переделывать доховать</t>
+  </si>
+  <si>
+    <t>суть лавка работать</t>
+  </si>
+  <si>
+    <t>программа собеседник напоминать личный секретарь круг обязанность входить информирование погода перевод деньги напоминание важный событие запись прием врач многий</t>
+  </si>
+  <si>
+    <t>помощь botfather создавать новый бот telegram изменять настройка существующий например добавлять описание устанавливать аватарка бот</t>
+  </si>
+  <si>
+    <t>бранить погода       –       меняться девять человек десять смочь начинать разговор</t>
+  </si>
+  <si>
+    <t>климат ирландия изумительный погода гробить</t>
+  </si>
+  <si>
+    <t>нравиться погода новый англия подождать несколько минута</t>
+  </si>
+  <si>
+    <t>метеорология научный обоснование неверный прогноз</t>
+  </si>
+  <si>
+    <t>метеоролог лишь различный образ объяснять погода дело заключаться изменять</t>
+  </si>
+  <si>
+    <t>плохой погода бывать бывать неподходящий костюм сэр ранульф файнс</t>
+  </si>
+  <si>
+    <t>разговор погода       —       разговор дурак</t>
+  </si>
+  <si>
+    <t>плохой погода бывать бывать неподходящий костюм</t>
+  </si>
+  <si>
+    <t>всякий человек заводить разговор погода несомненность чувствовать иметь вид чтото</t>
+  </si>
+  <si>
+    <t>становиться богатый знаменитый влиятельный       —       равный умирать количество человек приходить твой похороны сильно зависеть погода</t>
+  </si>
+  <si>
+    <t>миннесота бывать холодный ночь приходиться надевать презерватив сразу</t>
+  </si>
+  <si>
+    <t>дождливо</t>
+  </si>
+  <si>
+    <t>Не вопрос</t>
+  </si>
+  <si>
+    <t>አመሰግናለሁ</t>
+  </si>
+  <si>
+    <t>شكرًا</t>
+  </si>
+  <si>
+    <t>dankie</t>
+  </si>
+  <si>
+    <t>eskerrik asko</t>
+  </si>
+  <si>
+    <t>дзякуй</t>
+  </si>
+  <si>
+    <t>ধন্যবাদ</t>
+  </si>
+  <si>
+    <t>ကျေးဇူးပါ ။</t>
+  </si>
+  <si>
+    <t>благодаря</t>
+  </si>
+  <si>
+    <t>hvala</t>
+  </si>
+  <si>
+    <t>diolch</t>
+  </si>
+  <si>
+    <t>kösz</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>mahalo</t>
+  </si>
+  <si>
+    <t>mèsi</t>
+  </si>
+  <si>
+    <t>grazas</t>
+  </si>
+  <si>
+    <t>ευχαριστώ</t>
+  </si>
+  <si>
+    <t>მადლობა</t>
+  </si>
+  <si>
+    <t>આભાર</t>
+  </si>
+  <si>
+    <t>mòran taing</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>ngiyabonga</t>
+  </si>
+  <si>
+    <t>תודה</t>
+  </si>
+  <si>
+    <t>daalụ</t>
+  </si>
+  <si>
+    <t>א דאנק</t>
+  </si>
+  <si>
+    <t>terima kasih</t>
+  </si>
+  <si>
+    <t>go raibh maith agat</t>
+  </si>
+  <si>
+    <t>takk</t>
+  </si>
+  <si>
+    <t>gracias</t>
+  </si>
+  <si>
+    <t>grazie</t>
+  </si>
+  <si>
+    <t>ṣeun</t>
+  </si>
+  <si>
+    <t>рахмет</t>
+  </si>
+  <si>
+    <t>ಧನ್ಯವಾದಗಳು</t>
+  </si>
+  <si>
+    <t>gràcies</t>
+  </si>
+  <si>
+    <t>murakoze</t>
+  </si>
+  <si>
+    <t>рахмат</t>
+  </si>
+  <si>
+    <t>謝 謝</t>
+  </si>
+  <si>
+    <t>谢 谢</t>
+  </si>
+  <si>
+    <t>добро благодарность ждать  —</t>
+  </si>
+  <si>
+    <t>бесконечно благодарный существовать</t>
+  </si>
+  <si>
+    <t>благодарность быстро стареть</t>
+  </si>
+  <si>
+    <t>принимать благодеяние благодарность уплачивать первый взнос</t>
+  </si>
+  <si>
+    <t>благодарить господин жизнь который сей пора абсолютно чудесный</t>
+  </si>
+  <si>
+    <t>благодарить благодарить</t>
+  </si>
+  <si>
+    <t>спасибо господи каждый новый день</t>
+  </si>
+  <si>
+    <t>благодарить  уметь благодарить</t>
+  </si>
+  <si>
+    <t>благодарить … способность дар</t>
+  </si>
+  <si>
+    <t>благодарить … рожать</t>
+  </si>
+  <si>
+    <t>благодарить каждый лепесток</t>
+  </si>
+  <si>
+    <t>благодарить часто вверх смотреть</t>
+  </si>
+  <si>
+    <t>благодарить … требовать взамен …</t>
+  </si>
+  <si>
+    <t>благодарить конец …</t>
+  </si>
+  <si>
+    <t>благодарить</t>
+  </si>
+  <si>
+    <t>спасибо милый</t>
+  </si>
+  <si>
+    <t>сила наш благодарность</t>
+  </si>
+  <si>
+    <t>спасибо любимый друг</t>
+  </si>
+  <si>
+    <t>справляться смочь осиливать</t>
+  </si>
+  <si>
+    <t>благодарность знать граница</t>
+  </si>
+  <si>
+    <t>очень обязанный</t>
+  </si>
+  <si>
+    <t>знать делать</t>
+  </si>
+  <si>
+    <t>спасибо сделать</t>
+  </si>
+  <si>
+    <t>большой чистый спасибо</t>
+  </si>
+  <si>
+    <t>хотеть искренне поблагодарить</t>
+  </si>
+  <si>
+    <t>невероятно ценить сделать</t>
+  </si>
+  <si>
+    <t>обязанный должный</t>
+  </si>
+  <si>
+    <t>делать ситуация</t>
+  </si>
+  <si>
+    <t>знать отблагодарить</t>
+  </si>
+  <si>
+    <t>тысяча слово  « спасибо »  хватить выражать насколько благодарный</t>
+  </si>
+  <si>
+    <t>признательный</t>
+  </si>
+  <si>
+    <t>пропадать</t>
+  </si>
+  <si>
+    <t>мочь помогать</t>
+  </si>
+  <si>
+    <t>это забывать</t>
+  </si>
+  <si>
+    <t>благодарить судьба посылать замечательный человек</t>
+  </si>
+  <si>
+    <t>причитаться</t>
+  </si>
+  <si>
+    <t>благодарить забывать это</t>
+  </si>
+  <si>
+    <t>спасибо преогромный сомнение ваш поступок забывать</t>
+  </si>
+  <si>
+    <t>невозможно выражать слово благодарный …</t>
+  </si>
+  <si>
+    <t>очень признательный</t>
+  </si>
+  <si>
+    <t>вельми понеже премного благодарный древний русский</t>
+  </si>
+  <si>
+    <t>спасибо уважать поступок человек</t>
+  </si>
+  <si>
+    <t>помогать</t>
+  </si>
+  <si>
+    <t>ваш услуга участие неоценимый</t>
+  </si>
+  <si>
+    <t>огромный спасибо …</t>
+  </si>
+  <si>
+    <t>спасибо протягивать рука помощь</t>
+  </si>
+  <si>
+    <t>благодарить добросовестный отношение ко</t>
+  </si>
+  <si>
+    <t>благодарный</t>
+  </si>
+  <si>
+    <t>вовремя помогать помогать</t>
+  </si>
+  <si>
+    <t>спасибо ваш старание стремление</t>
+  </si>
+  <si>
+    <t>спасать бог господь</t>
+  </si>
+  <si>
+    <t>вовремя подвертываться посылать бог</t>
+  </si>
+  <si>
+    <t>премного благодарный</t>
+  </si>
+  <si>
+    <t>очень помогать</t>
+  </si>
+  <si>
+    <t>выражать слово весь</t>
+  </si>
+  <si>
+    <t>мочь передавать благодарность слово</t>
+  </si>
+  <si>
+    <t>ваш должник</t>
+  </si>
+  <si>
+    <t>выручать</t>
+  </si>
+  <si>
+    <t>очень везти обращаться</t>
+  </si>
+  <si>
+    <t>принимать искренний глубокий благодарность</t>
+  </si>
+  <si>
+    <t>искренне весь душа помнить день</t>
+  </si>
+  <si>
+    <t>благодарность предел</t>
+  </si>
+  <si>
+    <t>выражать свой признательность</t>
+  </si>
+  <si>
+    <t>большой спасибо</t>
+  </si>
+  <si>
+    <t>хватать слово выражать свой благодарность</t>
+  </si>
+  <si>
+    <t>забывать ваш участие</t>
+  </si>
+  <si>
+    <t>ваш помощь оказываться очень кстати</t>
+  </si>
+  <si>
+    <t>благодарный содеять</t>
+  </si>
+  <si>
+    <t>выражать слово благодарность</t>
+  </si>
+  <si>
+    <t>человек</t>
+  </si>
+  <si>
+    <t>сказать спасибо</t>
+  </si>
+  <si>
+    <t>спасибо сказать</t>
+  </si>
+  <si>
+    <t>спасибо</t>
+  </si>
+  <si>
+    <t>благо дарить</t>
+  </si>
+  <si>
+    <t>бранить погода        –        меняться девять человек десять смочь начинать разговор</t>
+  </si>
+  <si>
+    <t>погода</t>
+  </si>
+  <si>
+    <t>дело</t>
+  </si>
+  <si>
+    <t>идти дело</t>
+  </si>
+  <si>
+    <t>оно</t>
+  </si>
+  <si>
+    <t>заниматься</t>
+  </si>
+  <si>
+    <t>заниматься весь время</t>
+  </si>
+  <si>
+    <t>особенный вопрос ответ</t>
+  </si>
+  <si>
+    <t>особенный</t>
+  </si>
+  <si>
+    <t>oh   ’   really great complaints   ’   going</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>хотеть свой день рождение</t>
+  </si>
+  <si>
+    <t>аудитория твой</t>
+  </si>
+  <si>
+    <t>планировать путешествовать</t>
+  </si>
+  <si>
+    <t>твой экзамен</t>
+  </si>
+  <si>
+    <t>собираться навещать люся</t>
+  </si>
+  <si>
+    <t>почему ходить парк вчера</t>
+  </si>
+  <si>
+    <t>долго оставаться лондон</t>
+  </si>
+  <si>
+    <t>удаваться получать диплом</t>
+  </si>
+  <si>
+    <t>сколько человек твой офис</t>
+  </si>
+  <si>
+    <t>сколько деньги нужно</t>
+  </si>
+  <si>
+    <t>чей это машина</t>
+  </si>
+  <si>
+    <t>звонить прошлый ночь</t>
+  </si>
+  <si>
+    <t>приводить твой сестра школа</t>
+  </si>
+  <si>
+    <t>заставлять улыбаться</t>
+  </si>
+  <si>
+    <t>call last night</t>
+  </si>
+  <si>
+    <t>brought sister school</t>
+  </si>
+  <si>
+    <t>makes smile</t>
+  </si>
+  <si>
+    <t>much money need</t>
+  </si>
+  <si>
+    <t>go park yesterday</t>
+  </si>
+  <si>
+    <t>going visit lucy</t>
+  </si>
+  <si>
+    <t>твой дело   —     —   мочь помогать</t>
+  </si>
+  <si>
+    <t>твой дело</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>дело   —     —   отвечать   —   порядок</t>
+  </si>
+  <si>
+    <t>дело   — </t>
+  </si>
+  <si>
+    <t>дело   —     —   отвечать   —</t>
+  </si>
+  <si>
+    <t>погода москва год очень хороший</t>
+  </si>
+  <si>
+    <t>дождь</t>
+  </si>
+  <si>
+    <t>снег</t>
+  </si>
+  <si>
+    <t>град</t>
+  </si>
+  <si>
+    <t>изморось</t>
+  </si>
+  <si>
+    <t>солнце ярко светить</t>
+  </si>
+  <si>
+    <t>небо ясный</t>
+  </si>
+  <si>
+    <t>небо чисто</t>
+  </si>
+  <si>
+    <t>чистый небо</t>
+  </si>
+  <si>
+    <t>ярко солнце светить утро</t>
+  </si>
+  <si>
+    <t>утро дождь</t>
+  </si>
+  <si>
+    <t>ясный</t>
+  </si>
+  <si>
+    <t>снегопад который начинаться воскресение проходить</t>
+  </si>
+  <si>
+    <t>Миса реши</t>
+  </si>
+  <si>
+    <t>миса стань</t>
+  </si>
+  <si>
+    <t>миса фас</t>
+  </si>
+  <si>
+    <t>миса разойдись</t>
+  </si>
+  <si>
+    <t>миса сядь</t>
+  </si>
+  <si>
+    <t>миса уйди</t>
+  </si>
+  <si>
+    <t>миса распознай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">миса увеличь </t>
+  </si>
+  <si>
+    <t>миса уменьши</t>
+  </si>
+  <si>
+    <t>миса установи</t>
+  </si>
+  <si>
+    <t>миса выключи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">миса включи </t>
+  </si>
+  <si>
+    <t>миса включи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> миса включи </t>
+  </si>
+  <si>
+    <t>Миса включи музыку.</t>
+  </si>
+  <si>
+    <t>Миса включи что-нибудь.</t>
+  </si>
+  <si>
+    <t>Миса выключи музыку.</t>
+  </si>
+  <si>
+    <t>Включить музыку из Google Music</t>
+  </si>
+  <si>
+    <t>Миса включи песню «Впусти музыку».</t>
+  </si>
+  <si>
+    <t>Миса включи песню «Моряк».</t>
+  </si>
+  <si>
+    <t>Включить песню по названию</t>
+  </si>
+  <si>
+    <t>Миса включи последний альбом Би-2.</t>
+  </si>
+  <si>
+    <t>Миса включи альбом «Meteora» Linkin Park.</t>
+  </si>
+  <si>
+    <t>Включить альбом</t>
+  </si>
+  <si>
+    <t>Миса следующий трек.</t>
+  </si>
+  <si>
+    <t>Миса предыдущий трек.</t>
+  </si>
+  <si>
+    <t>Миса 15 умножить на 16.</t>
+  </si>
+  <si>
+    <t>Миса 420 разделить на 15.</t>
+  </si>
+  <si>
+    <t>Миса расписание кинотеатров на завтра.</t>
+  </si>
+  <si>
+    <t>Миса включи телевизор.</t>
+  </si>
+  <si>
+    <t>Миса выключи телевизор.</t>
+  </si>
+  <si>
+    <t>Миса пауза.</t>
+  </si>
+  <si>
+    <t>Миса возобнови.</t>
+  </si>
+  <si>
+    <t>Миса дальше.</t>
+  </si>
+  <si>
+    <t>Миса предыдущее видео.</t>
+  </si>
+  <si>
+    <t>Миса сделай громче.</t>
+  </si>
+  <si>
+    <t>Миса сделай тише.</t>
+  </si>
+  <si>
+    <t>Миса включи ютуб.</t>
+  </si>
+  <si>
+    <t>Миса включи трейлер Веном на телевизоре.</t>
+  </si>
+  <si>
+    <t>Миса включи весёлое видео.</t>
+  </si>
+  <si>
+    <t>Миса покажи клип Linkin Park.</t>
+  </si>
+  <si>
+    <t>Миса включи новости.</t>
+  </si>
+  <si>
+    <t>Миса расскажи новости.</t>
+  </si>
+  <si>
+    <t>Миса новости спорта.</t>
+  </si>
+  <si>
+    <t>Миса новости политики.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> реши</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> стань</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> фас</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> разойдись</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сядь</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> уйди</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> распознай</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> увеличь </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> уменьши</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> установи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выключи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  включи </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи музыку.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи что-нибудь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выключи музыку.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи песню «Впусти музыку».</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи песню «Моряк».</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи последний альбом Би-2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи альбом «Meteora» Linkin Park.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> следующий трек.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> предыдущий трек.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 умножить на 16.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 420 разделить на 15.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> расписание кинотеатров на завтра.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи телевизор.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выключи телевизор.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> пауза.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> возобнови.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> дальше.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> предыдущее видео.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сделай громче.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сделай тише.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи ютуб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи трейлер Веном на телевизоре.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи весёлое видео.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> покажи клип Linkin Park.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи новости.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> расскажи новости.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> новости спорта.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> новости политики.</t>
+  </si>
+  <si>
+    <t>спасибо быстро отвечать  —  знать сказать</t>
+  </si>
+  <si>
+    <t>благодарить внимание</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +1224,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -386,10 +1277,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,13 +1594,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C129"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:C129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F502" sqref="F502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -714,7 +1617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -722,10 +1625,10 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -733,87 +1636,87 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -821,10 +1724,10 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -832,10 +1735,10 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -843,10 +1746,10 @@
         <v>100</v>
       </c>
       <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -854,10 +1757,10 @@
         <v>100</v>
       </c>
       <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -865,10 +1768,10 @@
         <v>100</v>
       </c>
       <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -876,10 +1779,10 @@
         <v>100</v>
       </c>
       <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -887,10 +1790,10 @@
         <v>100</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -898,10 +1801,10 @@
         <v>100</v>
       </c>
       <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -909,10 +1812,10 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -920,10 +1823,10 @@
         <v>100</v>
       </c>
       <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -931,10 +1834,10 @@
         <v>100</v>
       </c>
       <c r="C21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -942,10 +1845,10 @@
         <v>100</v>
       </c>
       <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -953,10 +1856,10 @@
         <v>100</v>
       </c>
       <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -964,10 +1867,10 @@
         <v>100</v>
       </c>
       <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -975,10 +1878,10 @@
         <v>100</v>
       </c>
       <c r="C25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -986,10 +1889,10 @@
         <v>100</v>
       </c>
       <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -997,10 +1900,10 @@
         <v>100</v>
       </c>
       <c r="C27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1008,10 +1911,10 @@
         <v>100</v>
       </c>
       <c r="C28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1019,10 +1922,10 @@
         <v>100</v>
       </c>
       <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1030,10 +1933,10 @@
         <v>100</v>
       </c>
       <c r="C30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1041,10 +1944,10 @@
         <v>100</v>
       </c>
       <c r="C31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1052,10 +1955,10 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1063,10 +1966,10 @@
         <v>100</v>
       </c>
       <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1074,10 +1977,10 @@
         <v>100</v>
       </c>
       <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1085,10 +1988,10 @@
         <v>100</v>
       </c>
       <c r="C35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1096,10 +1999,10 @@
         <v>100</v>
       </c>
       <c r="C36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1107,10 +2010,10 @@
         <v>100</v>
       </c>
       <c r="C37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1118,10 +2021,10 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1129,10 +2032,10 @@
         <v>100</v>
       </c>
       <c r="C39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1140,10 +2043,10 @@
         <v>100</v>
       </c>
       <c r="C40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1151,10 +2054,10 @@
         <v>100</v>
       </c>
       <c r="C41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1162,10 +2065,10 @@
         <v>100</v>
       </c>
       <c r="C42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1173,10 +2076,10 @@
         <v>100</v>
       </c>
       <c r="C43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1184,10 +2087,10 @@
         <v>100</v>
       </c>
       <c r="C44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1195,10 +2098,10 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1206,10 +2109,10 @@
         <v>100</v>
       </c>
       <c r="C46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1217,10 +2120,10 @@
         <v>100</v>
       </c>
       <c r="C47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -1228,10 +2131,10 @@
         <v>100</v>
       </c>
       <c r="C48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -1239,10 +2142,10 @@
         <v>100</v>
       </c>
       <c r="C49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -1250,10 +2153,10 @@
         <v>100</v>
       </c>
       <c r="C50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1261,10 +2164,10 @@
         <v>100</v>
       </c>
       <c r="C51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -1272,10 +2175,10 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -1283,10 +2186,10 @@
         <v>100</v>
       </c>
       <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -1294,10 +2197,10 @@
         <v>100</v>
       </c>
       <c r="C54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -1305,10 +2208,10 @@
         <v>100</v>
       </c>
       <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -1316,10 +2219,10 @@
         <v>100</v>
       </c>
       <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -1327,10 +2230,10 @@
         <v>100</v>
       </c>
       <c r="C57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -1338,10 +2241,10 @@
         <v>100</v>
       </c>
       <c r="C58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -1349,10 +2252,10 @@
         <v>100</v>
       </c>
       <c r="C59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -1360,10 +2263,10 @@
         <v>100</v>
       </c>
       <c r="C60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -1371,10 +2274,10 @@
         <v>100</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -1382,10 +2285,10 @@
         <v>100</v>
       </c>
       <c r="C62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -1393,10 +2296,10 @@
         <v>100</v>
       </c>
       <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -1404,10 +2307,10 @@
         <v>100</v>
       </c>
       <c r="C64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -1415,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -1426,10 +2329,10 @@
         <v>100</v>
       </c>
       <c r="C66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -1437,10 +2340,10 @@
         <v>100</v>
       </c>
       <c r="C67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -1448,10 +2351,10 @@
         <v>100</v>
       </c>
       <c r="C68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -1459,10 +2362,10 @@
         <v>100</v>
       </c>
       <c r="C69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -1470,10 +2373,10 @@
         <v>100</v>
       </c>
       <c r="C70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -1481,10 +2384,10 @@
         <v>100</v>
       </c>
       <c r="C71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -1492,10 +2395,10 @@
         <v>100</v>
       </c>
       <c r="C72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -1503,10 +2406,10 @@
         <v>100</v>
       </c>
       <c r="C73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -1514,10 +2417,10 @@
         <v>100</v>
       </c>
       <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -1525,10 +2428,10 @@
         <v>100</v>
       </c>
       <c r="C75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -1536,10 +2439,10 @@
         <v>100</v>
       </c>
       <c r="C76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -1547,10 +2450,10 @@
         <v>100</v>
       </c>
       <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -1558,10 +2461,10 @@
         <v>100</v>
       </c>
       <c r="C78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -1569,10 +2472,10 @@
         <v>100</v>
       </c>
       <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -1580,10 +2483,10 @@
         <v>100</v>
       </c>
       <c r="C80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -1591,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -1602,527 +2505,4901 @@
         <v>100</v>
       </c>
       <c r="C82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>79</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>80</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>81</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>82</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>79</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>82</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>85</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>86</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>87</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>88</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>89</v>
       </c>
       <c r="B119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>90</v>
       </c>
       <c r="B120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>91</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>93</v>
       </c>
       <c r="B123" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>94</v>
       </c>
       <c r="B124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>95</v>
       </c>
       <c r="B125" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>96</v>
       </c>
       <c r="B126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>97</v>
       </c>
       <c r="B127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>98</v>
       </c>
       <c r="B128" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>99</v>
       </c>
       <c r="B129" t="s">
+        <v>100</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>101</v>
       </c>
-      <c r="C129">
-        <v>1</v>
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>103</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>104</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>101</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>106</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>107</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>108</v>
+      </c>
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B141" t="s">
+        <v>139</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>108</v>
+      </c>
+      <c r="B142" t="s">
+        <v>139</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>108</v>
+      </c>
+      <c r="B143" t="s">
+        <v>139</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>108</v>
+      </c>
+      <c r="B144" t="s">
+        <v>139</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>109</v>
+      </c>
+      <c r="B145" t="s">
+        <v>139</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>110</v>
+      </c>
+      <c r="B146" t="s">
+        <v>139</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>111</v>
+      </c>
+      <c r="B147" t="s">
+        <v>139</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>112</v>
+      </c>
+      <c r="B148" t="s">
+        <v>139</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>113</v>
+      </c>
+      <c r="B149" t="s">
+        <v>139</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>114</v>
+      </c>
+      <c r="B150" t="s">
+        <v>139</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>115</v>
+      </c>
+      <c r="B151" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>116</v>
+      </c>
+      <c r="B152" t="s">
+        <v>139</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>117</v>
+      </c>
+      <c r="B153" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>118</v>
+      </c>
+      <c r="B154" t="s">
+        <v>139</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>119</v>
+      </c>
+      <c r="B155" t="s">
+        <v>139</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>120</v>
+      </c>
+      <c r="B156" t="s">
+        <v>139</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>121</v>
+      </c>
+      <c r="B157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>122</v>
+      </c>
+      <c r="B158" t="s">
+        <v>139</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>123</v>
+      </c>
+      <c r="B159" t="s">
+        <v>139</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>124</v>
+      </c>
+      <c r="B160" t="s">
+        <v>139</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>125</v>
+      </c>
+      <c r="B161" t="s">
+        <v>139</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>126</v>
+      </c>
+      <c r="B162" t="s">
+        <v>139</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>127</v>
+      </c>
+      <c r="B163" t="s">
+        <v>139</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>128</v>
+      </c>
+      <c r="B164" t="s">
+        <v>139</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>129</v>
+      </c>
+      <c r="B165" t="s">
+        <v>139</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>130</v>
+      </c>
+      <c r="B166" t="s">
+        <v>139</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>131</v>
+      </c>
+      <c r="B167" t="s">
+        <v>139</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>132</v>
+      </c>
+      <c r="B168" t="s">
+        <v>139</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>133</v>
+      </c>
+      <c r="B169" t="s">
+        <v>139</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>134</v>
+      </c>
+      <c r="B170" t="s">
+        <v>139</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>135</v>
+      </c>
+      <c r="B171" t="s">
+        <v>139</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>136</v>
+      </c>
+      <c r="B172" t="s">
+        <v>139</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>137</v>
+      </c>
+      <c r="B173" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>101</v>
+      </c>
+      <c r="B174" t="s">
+        <v>139</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>102</v>
+      </c>
+      <c r="B175" t="s">
+        <v>139</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>102</v>
+      </c>
+      <c r="B176" t="s">
+        <v>139</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>102</v>
+      </c>
+      <c r="B177" t="s">
+        <v>139</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>102</v>
+      </c>
+      <c r="B178" t="s">
+        <v>139</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>138</v>
+      </c>
+      <c r="B179" t="s">
+        <v>139</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>101</v>
+      </c>
+      <c r="B180" t="s">
+        <v>139</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>105</v>
+      </c>
+      <c r="B181" t="s">
+        <v>139</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>106</v>
+      </c>
+      <c r="B182" t="s">
+        <v>139</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>107</v>
+      </c>
+      <c r="B183" t="s">
+        <v>139</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>111</v>
+      </c>
+      <c r="B184" t="s">
+        <v>139</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B185" t="s">
+        <v>139</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>111</v>
+      </c>
+      <c r="B186" t="s">
+        <v>139</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>111</v>
+      </c>
+      <c r="B187" t="s">
+        <v>139</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>111</v>
+      </c>
+      <c r="B188" t="s">
+        <v>139</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>140</v>
+      </c>
+      <c r="B189" t="s">
+        <v>139</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>141</v>
+      </c>
+      <c r="B190" t="s">
+        <v>139</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>141</v>
+      </c>
+      <c r="B191" t="s">
+        <v>139</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>142</v>
+      </c>
+      <c r="B192" t="s">
+        <v>139</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>143</v>
+      </c>
+      <c r="B193" t="s">
+        <v>139</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>144</v>
+      </c>
+      <c r="B194" t="s">
+        <v>139</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>145</v>
+      </c>
+      <c r="B195" t="s">
+        <v>139</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>146</v>
+      </c>
+      <c r="B196" t="s">
+        <v>139</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>147</v>
+      </c>
+      <c r="B197" t="s">
+        <v>139</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>148</v>
+      </c>
+      <c r="B198" t="s">
+        <v>139</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>149</v>
+      </c>
+      <c r="B199" t="s">
+        <v>139</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>150</v>
+      </c>
+      <c r="B200" t="s">
+        <v>139</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>151</v>
+      </c>
+      <c r="B201" t="s">
+        <v>139</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>152</v>
+      </c>
+      <c r="B202" t="s">
+        <v>139</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>153</v>
+      </c>
+      <c r="B203" t="s">
+        <v>139</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>154</v>
+      </c>
+      <c r="B204" t="s">
+        <v>139</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>155</v>
+      </c>
+      <c r="B205" t="s">
+        <v>139</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>156</v>
+      </c>
+      <c r="B206" t="s">
+        <v>139</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>157</v>
+      </c>
+      <c r="B207" t="s">
+        <v>139</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>158</v>
+      </c>
+      <c r="B208" t="s">
+        <v>139</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>159</v>
+      </c>
+      <c r="B209" t="s">
+        <v>139</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>160</v>
+      </c>
+      <c r="B210" t="s">
+        <v>139</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>161</v>
+      </c>
+      <c r="B211" t="s">
+        <v>139</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>162</v>
+      </c>
+      <c r="B212" t="s">
+        <v>139</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>163</v>
+      </c>
+      <c r="B213" t="s">
+        <v>139</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>164</v>
+      </c>
+      <c r="B214" t="s">
+        <v>139</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>165</v>
+      </c>
+      <c r="B215" t="s">
+        <v>139</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>166</v>
+      </c>
+      <c r="B216" t="s">
+        <v>139</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>167</v>
+      </c>
+      <c r="B217" t="s">
+        <v>139</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>168</v>
+      </c>
+      <c r="B218" t="s">
+        <v>139</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>169</v>
+      </c>
+      <c r="B219" t="s">
+        <v>139</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>170</v>
+      </c>
+      <c r="B220" t="s">
+        <v>139</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>171</v>
+      </c>
+      <c r="B221" t="s">
+        <v>139</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>172</v>
+      </c>
+      <c r="B222" t="s">
+        <v>139</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>173</v>
+      </c>
+      <c r="B223" t="s">
+        <v>139</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>174</v>
+      </c>
+      <c r="B224" t="s">
+        <v>139</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>175</v>
+      </c>
+      <c r="B225" t="s">
+        <v>139</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>176</v>
+      </c>
+      <c r="B226" t="s">
+        <v>139</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>177</v>
+      </c>
+      <c r="B227" t="s">
+        <v>139</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>178</v>
+      </c>
+      <c r="B228" t="s">
+        <v>139</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>179</v>
+      </c>
+      <c r="B229" t="s">
+        <v>139</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>180</v>
+      </c>
+      <c r="B230" t="s">
+        <v>139</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>181</v>
+      </c>
+      <c r="B231" t="s">
+        <v>139</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>182</v>
+      </c>
+      <c r="B232" t="s">
+        <v>139</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>183</v>
+      </c>
+      <c r="B233" t="s">
+        <v>139</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>184</v>
+      </c>
+      <c r="B234" t="s">
+        <v>139</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>185</v>
+      </c>
+      <c r="B235" t="s">
+        <v>139</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>186</v>
+      </c>
+      <c r="B236" t="s">
+        <v>139</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>187</v>
+      </c>
+      <c r="B237" t="s">
+        <v>139</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>188</v>
+      </c>
+      <c r="B238" t="s">
+        <v>139</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>189</v>
+      </c>
+      <c r="B239" t="s">
+        <v>139</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>190</v>
+      </c>
+      <c r="B240" t="s">
+        <v>139</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>191</v>
+      </c>
+      <c r="B241" t="s">
+        <v>139</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>192</v>
+      </c>
+      <c r="B242" t="s">
+        <v>139</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>193</v>
+      </c>
+      <c r="B243" t="s">
+        <v>139</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>194</v>
+      </c>
+      <c r="B244" t="s">
+        <v>139</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>195</v>
+      </c>
+      <c r="B245" t="s">
+        <v>139</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>196</v>
+      </c>
+      <c r="B246" t="s">
+        <v>139</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>197</v>
+      </c>
+      <c r="B247" t="s">
+        <v>139</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>198</v>
+      </c>
+      <c r="B248" t="s">
+        <v>139</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>199</v>
+      </c>
+      <c r="B249" t="s">
+        <v>139</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>200</v>
+      </c>
+      <c r="B250" t="s">
+        <v>139</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>201</v>
+      </c>
+      <c r="B251" t="s">
+        <v>139</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>202</v>
+      </c>
+      <c r="B252" t="s">
+        <v>139</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>203</v>
+      </c>
+      <c r="B253" t="s">
+        <v>139</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>204</v>
+      </c>
+      <c r="B254" t="s">
+        <v>139</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>205</v>
+      </c>
+      <c r="B255" t="s">
+        <v>139</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>206</v>
+      </c>
+      <c r="B256" t="s">
+        <v>139</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>207</v>
+      </c>
+      <c r="B257" t="s">
+        <v>139</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>208</v>
+      </c>
+      <c r="B258" t="s">
+        <v>139</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>209</v>
+      </c>
+      <c r="B259" t="s">
+        <v>139</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>210</v>
+      </c>
+      <c r="B260" t="s">
+        <v>139</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>211</v>
+      </c>
+      <c r="B261" t="s">
+        <v>139</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>212</v>
+      </c>
+      <c r="B262" t="s">
+        <v>139</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>213</v>
+      </c>
+      <c r="B263" t="s">
+        <v>139</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>214</v>
+      </c>
+      <c r="B264" t="s">
+        <v>139</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>215</v>
+      </c>
+      <c r="B265" t="s">
+        <v>139</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>216</v>
+      </c>
+      <c r="B266" t="s">
+        <v>139</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>217</v>
+      </c>
+      <c r="B267" t="s">
+        <v>139</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>218</v>
+      </c>
+      <c r="B268" t="s">
+        <v>139</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>219</v>
+      </c>
+      <c r="B269" t="s">
+        <v>139</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>220</v>
+      </c>
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>221</v>
+      </c>
+      <c r="B271" t="s">
+        <v>139</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>222</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>223</v>
+      </c>
+      <c r="B273" t="s">
+        <v>139</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>224</v>
+      </c>
+      <c r="B274" t="s">
+        <v>139</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>225</v>
+      </c>
+      <c r="B275" t="s">
+        <v>139</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>226</v>
+      </c>
+      <c r="B276" t="s">
+        <v>139</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>227</v>
+      </c>
+      <c r="B277" t="s">
+        <v>139</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>228</v>
+      </c>
+      <c r="B278" t="s">
+        <v>139</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>229</v>
+      </c>
+      <c r="B279" t="s">
+        <v>139</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>230</v>
+      </c>
+      <c r="B280" t="s">
+        <v>139</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>231</v>
+      </c>
+      <c r="B281" t="s">
+        <v>139</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>232</v>
+      </c>
+      <c r="B282" t="s">
+        <v>139</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>233</v>
+      </c>
+      <c r="B283" t="s">
+        <v>139</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>234</v>
+      </c>
+      <c r="B284" t="s">
+        <v>139</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>235</v>
+      </c>
+      <c r="B285" t="s">
+        <v>139</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>236</v>
+      </c>
+      <c r="B286" t="s">
+        <v>139</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>237</v>
+      </c>
+      <c r="B287" t="s">
+        <v>139</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>238</v>
+      </c>
+      <c r="B288" t="s">
+        <v>139</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>239</v>
+      </c>
+      <c r="B289" t="s">
+        <v>139</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>240</v>
+      </c>
+      <c r="B290" t="s">
+        <v>139</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>241</v>
+      </c>
+      <c r="B291" t="s">
+        <v>139</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>217</v>
+      </c>
+      <c r="B292" t="s">
+        <v>139</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>242</v>
+      </c>
+      <c r="B293" t="s">
+        <v>139</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>243</v>
+      </c>
+      <c r="B294" t="s">
+        <v>139</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>244</v>
+      </c>
+      <c r="B295" t="s">
+        <v>139</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>245</v>
+      </c>
+      <c r="B296" t="s">
+        <v>139</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>246</v>
+      </c>
+      <c r="B297" t="s">
+        <v>139</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>230</v>
+      </c>
+      <c r="B298" t="s">
+        <v>139</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>247</v>
+      </c>
+      <c r="B299" t="s">
+        <v>139</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>192</v>
+      </c>
+      <c r="B300" t="s">
+        <v>139</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>248</v>
+      </c>
+      <c r="B301" t="s">
+        <v>139</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>249</v>
+      </c>
+      <c r="B302" t="s">
+        <v>139</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>250</v>
+      </c>
+      <c r="B303" t="s">
+        <v>139</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>251</v>
+      </c>
+      <c r="B304" t="s">
+        <v>139</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>101</v>
+      </c>
+      <c r="B305" t="s">
+        <v>139</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>102</v>
+      </c>
+      <c r="B306" t="s">
+        <v>139</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>103</v>
+      </c>
+      <c r="B307" t="s">
+        <v>139</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>103</v>
+      </c>
+      <c r="B308" t="s">
+        <v>139</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>103</v>
+      </c>
+      <c r="B309" t="s">
+        <v>139</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>104</v>
+      </c>
+      <c r="B310" t="s">
+        <v>139</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>101</v>
+      </c>
+      <c r="B311" t="s">
+        <v>139</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>105</v>
+      </c>
+      <c r="B312" t="s">
+        <v>139</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>106</v>
+      </c>
+      <c r="B313" t="s">
+        <v>139</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>107</v>
+      </c>
+      <c r="B314" t="s">
+        <v>139</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>108</v>
+      </c>
+      <c r="B315" t="s">
+        <v>139</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>108</v>
+      </c>
+      <c r="B316" t="s">
+        <v>139</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>108</v>
+      </c>
+      <c r="B317" t="s">
+        <v>139</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>108</v>
+      </c>
+      <c r="B318" t="s">
+        <v>139</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>108</v>
+      </c>
+      <c r="B319" t="s">
+        <v>139</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>109</v>
+      </c>
+      <c r="B320" t="s">
+        <v>139</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>110</v>
+      </c>
+      <c r="B321" t="s">
+        <v>139</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>111</v>
+      </c>
+      <c r="B322" t="s">
+        <v>139</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>112</v>
+      </c>
+      <c r="B323" t="s">
+        <v>139</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>113</v>
+      </c>
+      <c r="B324" t="s">
+        <v>139</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>114</v>
+      </c>
+      <c r="B325" t="s">
+        <v>139</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>115</v>
+      </c>
+      <c r="B326" t="s">
+        <v>139</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>116</v>
+      </c>
+      <c r="B327" t="s">
+        <v>139</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>117</v>
+      </c>
+      <c r="B328" t="s">
+        <v>139</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>118</v>
+      </c>
+      <c r="B329" t="s">
+        <v>139</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>119</v>
+      </c>
+      <c r="B330" t="s">
+        <v>139</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>120</v>
+      </c>
+      <c r="B331" t="s">
+        <v>139</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>121</v>
+      </c>
+      <c r="B332" t="s">
+        <v>139</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>122</v>
+      </c>
+      <c r="B333" t="s">
+        <v>139</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>123</v>
+      </c>
+      <c r="B334" t="s">
+        <v>139</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>124</v>
+      </c>
+      <c r="B335" t="s">
+        <v>139</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>125</v>
+      </c>
+      <c r="B336" t="s">
+        <v>139</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>126</v>
+      </c>
+      <c r="B337" t="s">
+        <v>139</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>252</v>
+      </c>
+      <c r="B338" t="s">
+        <v>139</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>128</v>
+      </c>
+      <c r="B339" t="s">
+        <v>139</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>129</v>
+      </c>
+      <c r="B340" t="s">
+        <v>139</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>130</v>
+      </c>
+      <c r="B341" t="s">
+        <v>139</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>131</v>
+      </c>
+      <c r="B342" t="s">
+        <v>139</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>132</v>
+      </c>
+      <c r="B343" t="s">
+        <v>139</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>3</v>
+      </c>
+      <c r="B344" t="s">
+        <v>139</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345" t="s">
+        <v>139</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>253</v>
+      </c>
+      <c r="B346" t="s">
+        <v>139</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>254</v>
+      </c>
+      <c r="B347" t="s">
+        <v>139</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>254</v>
+      </c>
+      <c r="B348" t="s">
+        <v>139</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>254</v>
+      </c>
+      <c r="B349" t="s">
+        <v>139</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>255</v>
+      </c>
+      <c r="B350" t="s">
+        <v>139</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>256</v>
+      </c>
+      <c r="B351" t="s">
+        <v>139</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>256</v>
+      </c>
+      <c r="B352" t="s">
+        <v>139</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>257</v>
+      </c>
+      <c r="B353" t="s">
+        <v>139</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>258</v>
+      </c>
+      <c r="B354" t="s">
+        <v>139</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>258</v>
+      </c>
+      <c r="B355" t="s">
+        <v>139</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>259</v>
+      </c>
+      <c r="B356" t="s">
+        <v>139</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>260</v>
+      </c>
+      <c r="B357" t="s">
+        <v>139</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>260</v>
+      </c>
+      <c r="B358" t="s">
+        <v>139</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>261</v>
+      </c>
+      <c r="B359" t="s">
+        <v>139</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>262</v>
+      </c>
+      <c r="B360" t="s">
+        <v>139</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>262</v>
+      </c>
+      <c r="B361" t="s">
+        <v>139</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>262</v>
+      </c>
+      <c r="B362" t="s">
+        <v>139</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>262</v>
+      </c>
+      <c r="B363" t="s">
+        <v>139</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>262</v>
+      </c>
+      <c r="B364" t="s">
+        <v>139</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>262</v>
+      </c>
+      <c r="B365" t="s">
+        <v>139</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>263</v>
+      </c>
+      <c r="B366" t="s">
+        <v>139</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>262</v>
+      </c>
+      <c r="B367" t="s">
+        <v>139</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>264</v>
+      </c>
+      <c r="B368" t="s">
+        <v>139</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>265</v>
+      </c>
+      <c r="B369" t="s">
+        <v>139</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>25</v>
+      </c>
+      <c r="B370" t="s">
+        <v>139</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>262</v>
+      </c>
+      <c r="B371" t="s">
+        <v>139</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>266</v>
+      </c>
+      <c r="B372" t="s">
+        <v>139</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>267</v>
+      </c>
+      <c r="B373" t="s">
+        <v>139</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>268</v>
+      </c>
+      <c r="B374" t="s">
+        <v>139</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>269</v>
+      </c>
+      <c r="B375" t="s">
+        <v>139</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>270</v>
+      </c>
+      <c r="B376" t="s">
+        <v>139</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>271</v>
+      </c>
+      <c r="B377" t="s">
+        <v>139</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>272</v>
+      </c>
+      <c r="B378" t="s">
+        <v>139</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>273</v>
+      </c>
+      <c r="B379" t="s">
+        <v>139</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>274</v>
+      </c>
+      <c r="B380" t="s">
+        <v>139</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>275</v>
+      </c>
+      <c r="B381" t="s">
+        <v>139</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>276</v>
+      </c>
+      <c r="B382" t="s">
+        <v>139</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>277</v>
+      </c>
+      <c r="B383" t="s">
+        <v>139</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>278</v>
+      </c>
+      <c r="B384" t="s">
+        <v>139</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>279</v>
+      </c>
+      <c r="B385" t="s">
+        <v>139</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>280</v>
+      </c>
+      <c r="B386" t="s">
+        <v>139</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>281</v>
+      </c>
+      <c r="B387" t="s">
+        <v>139</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>282</v>
+      </c>
+      <c r="B388" t="s">
+        <v>139</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>283</v>
+      </c>
+      <c r="B389" t="s">
+        <v>139</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>280</v>
+      </c>
+      <c r="B390" t="s">
+        <v>139</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>284</v>
+      </c>
+      <c r="B391" t="s">
+        <v>139</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>285</v>
+      </c>
+      <c r="B392" t="s">
+        <v>139</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>286</v>
+      </c>
+      <c r="B393" t="s">
+        <v>139</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>287</v>
+      </c>
+      <c r="B394" t="s">
+        <v>139</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>253</v>
+      </c>
+      <c r="B395" t="s">
+        <v>139</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>254</v>
+      </c>
+      <c r="B396" t="s">
+        <v>139</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>254</v>
+      </c>
+      <c r="B397" t="s">
+        <v>139</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>254</v>
+      </c>
+      <c r="B398" t="s">
+        <v>139</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>255</v>
+      </c>
+      <c r="B399" t="s">
+        <v>139</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>256</v>
+      </c>
+      <c r="B400" t="s">
+        <v>139</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>256</v>
+      </c>
+      <c r="B401" t="s">
+        <v>139</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>288</v>
+      </c>
+      <c r="B402" t="s">
+        <v>139</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>289</v>
+      </c>
+      <c r="B403" t="s">
+        <v>139</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>290</v>
+      </c>
+      <c r="B404" t="s">
+        <v>139</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>291</v>
+      </c>
+      <c r="B405" t="s">
+        <v>139</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>286</v>
+      </c>
+      <c r="B406" t="s">
+        <v>139</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>287</v>
+      </c>
+      <c r="B407" t="s">
+        <v>139</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>292</v>
+      </c>
+      <c r="B408" t="s">
+        <v>139</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>293</v>
+      </c>
+      <c r="B409" t="s">
+        <v>139</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>294</v>
+      </c>
+      <c r="B410" t="s">
+        <v>139</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>295</v>
+      </c>
+      <c r="B411" t="s">
+        <v>139</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>296</v>
+      </c>
+      <c r="B412" t="s">
+        <v>139</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>297</v>
+      </c>
+      <c r="B413" t="s">
+        <v>139</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>298</v>
+      </c>
+      <c r="B414" t="s">
+        <v>139</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>299</v>
+      </c>
+      <c r="B415" t="s">
+        <v>139</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>300</v>
+      </c>
+      <c r="B416" t="s">
+        <v>139</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>301</v>
+      </c>
+      <c r="B417" t="s">
+        <v>139</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>302</v>
+      </c>
+      <c r="B418" t="s">
+        <v>139</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>303</v>
+      </c>
+      <c r="B419" t="s">
+        <v>139</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>293</v>
+      </c>
+      <c r="B420" t="s">
+        <v>139</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>293</v>
+      </c>
+      <c r="B421" t="s">
+        <v>139</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>304</v>
+      </c>
+      <c r="B422" t="s">
+        <v>139</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>103</v>
+      </c>
+      <c r="B423" t="s">
+        <v>139</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>103</v>
+      </c>
+      <c r="B424" t="s">
+        <v>139</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>103</v>
+      </c>
+      <c r="B425" t="s">
+        <v>139</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>103</v>
+      </c>
+      <c r="B426" t="s">
+        <v>139</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>103</v>
+      </c>
+      <c r="B427" t="s">
+        <v>139</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>103</v>
+      </c>
+      <c r="B428" t="s">
+        <v>139</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>103</v>
+      </c>
+      <c r="B429" t="s">
+        <v>139</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>103</v>
+      </c>
+      <c r="B430" t="s">
+        <v>139</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>103</v>
+      </c>
+      <c r="B431" t="s">
+        <v>139</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>103</v>
+      </c>
+      <c r="B432" t="s">
+        <v>139</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>103</v>
+      </c>
+      <c r="B433" t="s">
+        <v>139</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>103</v>
+      </c>
+      <c r="B434" t="s">
+        <v>139</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B435" t="s">
+        <v>139</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B436" t="s">
+        <v>139</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B437" t="s">
+        <v>139</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B438" t="s">
+        <v>139</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B439" t="s">
+        <v>139</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B440" t="s">
+        <v>139</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B441" t="s">
+        <v>139</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B442" t="s">
+        <v>139</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B443" t="s">
+        <v>139</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B444" t="s">
+        <v>139</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B445" t="s">
+        <v>139</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B446" t="s">
+        <v>139</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B447" t="s">
+        <v>139</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B448" t="s">
+        <v>139</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B449" t="s">
+        <v>139</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B450" t="s">
+        <v>139</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B451" t="s">
+        <v>139</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B452" t="s">
+        <v>139</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B453" t="s">
+        <v>139</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B454" t="s">
+        <v>139</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B455" t="s">
+        <v>139</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B456" t="s">
+        <v>139</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B457" t="s">
+        <v>139</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B458" t="s">
+        <v>139</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B459" t="s">
+        <v>139</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B460" t="s">
+        <v>139</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B461" t="s">
+        <v>139</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B462" t="s">
+        <v>139</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B463" t="s">
+        <v>139</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B464" t="s">
+        <v>139</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B465" t="s">
+        <v>139</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B466" t="s">
+        <v>139</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B467" t="s">
+        <v>139</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B468" t="s">
+        <v>139</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B469" t="s">
+        <v>139</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B470" t="s">
+        <v>139</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B471" t="s">
+        <v>139</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B472" t="s">
+        <v>139</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B473" t="s">
+        <v>139</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B474" t="s">
+        <v>139</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B475" t="s">
+        <v>139</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B476" t="s">
+        <v>139</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B477" t="s">
+        <v>139</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B478" t="s">
+        <v>139</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B479" t="s">
+        <v>139</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B480" t="s">
+        <v>139</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B481" t="s">
+        <v>139</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B482" t="s">
+        <v>139</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B483" t="s">
+        <v>139</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B484" t="s">
+        <v>139</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B485" t="s">
+        <v>139</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B486" t="s">
+        <v>139</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B487" t="s">
+        <v>139</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B488" t="s">
+        <v>139</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B489" t="s">
+        <v>139</v>
+      </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B490" t="s">
+        <v>139</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B491" t="s">
+        <v>139</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B492" t="s">
+        <v>139</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B493" t="s">
+        <v>139</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B494" t="s">
+        <v>139</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B495" t="s">
+        <v>139</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B496" t="s">
+        <v>139</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B497" t="s">
+        <v>139</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B498" t="s">
+        <v>139</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B499" t="s">
+        <v>139</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B500" t="s">
+        <v>139</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B501" t="s">
+        <v>139</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B502" t="s">
+        <v>139</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B503" t="s">
+        <v>139</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B504" t="s">
+        <v>139</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B505" t="s">
+        <v>139</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B506" t="s">
+        <v>139</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B507" t="s">
+        <v>139</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B508" t="s">
+        <v>139</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B509" t="s">
+        <v>139</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B510" t="s">
+        <v>139</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B511" t="s">
+        <v>139</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B512" t="s">
+        <v>139</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B513" t="s">
+        <v>139</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B514" t="s">
+        <v>139</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B515" t="s">
+        <v>139</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B516" t="s">
+        <v>139</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B517" t="s">
+        <v>139</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B518" t="s">
+        <v>139</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B519" t="s">
+        <v>139</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B520" t="s">
+        <v>139</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B521" t="s">
+        <v>139</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B522" t="s">
+        <v>139</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B523" t="s">
+        <v>139</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B524" t="s">
+        <v>139</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>392</v>
+      </c>
+      <c r="B525" t="s">
+        <v>139</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>393</v>
+      </c>
+      <c r="B526" t="s">
+        <v>139</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C434">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Не вопрос"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/questionset.xlsx
+++ b/datasets/questionset.xlsx
@@ -1597,8 +1597,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F502" sqref="F502"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:C501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datasets/questionset.xlsx
+++ b/datasets/questionset.xlsx
@@ -2058,7 +2058,7 @@
   <dimension ref="A1:C1403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datasets/questionset.xlsx
+++ b/datasets/questionset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1312"/>
+  <dimension ref="A1:C1558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>как         погода       ?</t>
+          <t>как     погода    ?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>как         дело       ?</t>
+          <t>как     дело    ?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>как         дело       ?</t>
+          <t>как     дело    ?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>как         дело       ?</t>
+          <t>как     дело    ?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>как         идти         дело       ?</t>
+          <t>как     идти     дело    ?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>как         оно       ?</t>
+          <t>как     оно    ?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>как         оно       ?</t>
+          <t>как     оно    ?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>что         заниматься       ?</t>
+          <t>что     заниматься    ?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>что         заниматься         весь         этот         время       ?</t>
+          <t>что     заниматься     весь     этот     время    ?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>что         заниматься         весь         этот         время       ?</t>
+          <t>что     заниматься     весь     этот     время    ?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>что         такой         особенный         в         этот         вопрос         и         ответ       ?</t>
+          <t>что     такой     особенный     в     этот     вопрос     и     ответ    ?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>что         особенный       ?</t>
+          <t>что     особенный    ?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>что         такой         особенный       ?</t>
+          <t>что     такой     особенный    ?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>oh    ,     it    ’    s         been         really         great       .         no         complaints         here       !         and         how    ’    s         it         going         for         you       ?</t>
+          <t>oh     it  ’  s     been     really     great        no     complaints     here        and     how  ’  s     it     going     for     you    ?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">what     </t>
+          <t xml:space="preserve">what   </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">which     </t>
+          <t xml:space="preserve">which   </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">where     </t>
+          <t xml:space="preserve">where   </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">why     </t>
+          <t xml:space="preserve">why   </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>how         long</t>
+          <t>how     long</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">how     </t>
+          <t xml:space="preserve">how   </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>how         much</t>
+          <t>how     much</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>how         many</t>
+          <t>how     many</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">whom     </t>
+          <t xml:space="preserve">whom   </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>что         ты         хотеть         на         свой         день         рождение       ?</t>
+          <t>что     ты     хотеть     на     свой     день     рождение    ?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>какой         аудитория         твой       ?</t>
+          <t>какой     аудитория     твой    ?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">     куда         ты         планировать         путешествовать       ?</t>
+          <t xml:space="preserve">   куда     ты     планировать     путешествовать    ?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>когда         быть         твой         экзамен       ?</t>
+          <t>когда     быть     твой     экзамен    ?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>кто         собираться         навещать         люся       ?</t>
+          <t>кто     собираться     навещать     люся    ?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>почему         ты         ходить         в         парк         вчера       ?</t>
+          <t>почему     ты     ходить     в     парк     вчера    ?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>как         долго         ты         оставаться         в         лондон       ?</t>
+          <t>как     долго     ты     оставаться     в     лондон    ?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>как         ты         удаваться         получать         этот         диплом       ?</t>
+          <t>как     ты     удаваться     получать     этот     диплом    ?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>сколько         человек         в         твой         офис       ?</t>
+          <t>сколько     человек     в     твой     офис    ?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>сколько         деньги         ты         нужно       ?</t>
+          <t>сколько     деньги     ты     нужно    ?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>чей         это         машина       ?</t>
+          <t>чей     это     машина    ?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>кто         ты         звонить         прошлый         ночь       ?</t>
+          <t>кто     ты     звонить     прошлый     ночь    ?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>кто         приводить         твой         сестра         в         школа       ?</t>
+          <t>кто     приводить     твой     сестра     в     школа    ?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>что         заставлять         ты         улыбаться       ?</t>
+          <t>что     заставлять     ты     улыбаться    ?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>whom         did         you         call         last         night       ?</t>
+          <t>whom     did     you     call     last     night    ?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">who         brought         your         sister         to         school       ?     </t>
+          <t xml:space="preserve">who     brought     your     sister     to     school    ?   </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>what         makes         you         smile       ?</t>
+          <t>what     makes     you     smile    ?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>how         much         money         do         you         need       ?</t>
+          <t>how     much     money     do     you     need    ?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>whom         did         you         call         last         night       ?</t>
+          <t>whom     did     you     call     last     night    ?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>why         did         you         go         to         the         park         yesterday       ?</t>
+          <t>why     did     you     go     to     the     park     yesterday    ?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>who         is         going         to         visit         lucy       ?</t>
+          <t>who     is     going     to     visit     lucy    ?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>when         was         your         exam       ?</t>
+          <t>when     was     your     exam    ?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>where         did         you         plan         to         travel       ?</t>
+          <t>where     did     you     plan     to     travel    ?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">which         classroom         is         yours       ?     </t>
+          <t xml:space="preserve">which     classroom     is     yours    ?   </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>what         do         you         want         for         your         birthday       ?</t>
+          <t>what     do     you     want     for     your     birthday    ?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>откуда         вы         узнавать         о         вакансия       ?</t>
+          <t>откуда     вы     узнавать     о     вакансия    ?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>что         вы         знать         о         наш         компания       ?</t>
+          <t>что     вы     знать     о     наш     компания    ?</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>почему         мы         должный         нанимать         именно         вы       ?</t>
+          <t>почему     мы     должный     нанимать     именно     вы    ?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>какой         качество         помогать         вы         в         работа       ?</t>
+          <t>какой     качество     помогать     вы     в     работа    ?</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>что         вы         считать         свой         слабость       ?</t>
+          <t>что     вы     считать     свой     слабость    ?</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>рассказывать         о         трудность         или         конфликт    ,     с         который         вы         сталкиваться         на         работа    ,     и         как         вы         решать         проблема       ?</t>
+          <t>рассказывать     о     трудность     или     конфликт     с     который     вы     сталкиваться     на     работа     и     как     вы     решать     проблема    ?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>где         вы         видеть         себя         через         пять         год       ?</t>
+          <t>где     вы     видеть     себя     через     пять     год    ?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>почему         вы         уходить         с         текущий         место         работа       ?</t>
+          <t>почему     вы     уходить     с     текущий     место     работа    ?</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>вы         ходить         на         собеседование         в         другой         компания       ?</t>
+          <t>вы     ходить     на     собеседование     в     другой     компания    ?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>как         вы         преодолевать         стресс       ?</t>
+          <t>как     вы     преодолевать     стресс    ?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>как         вы         преодолевать         волнение       ?</t>
+          <t>как     вы     преодолевать     волнение    ?</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>какой         у         вы         хобби    ,     что         вы         любить         делать       ?</t>
+          <t>какой     у     вы     хобби     что     вы     любить     делать    ?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>как         руководитель         и         коллега         мочь         бы         описывать         вы       ?</t>
+          <t>как     руководитель     и     коллега     мочь     бы     описывать     вы    ?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>в         какой         обстановка         вы         предпочитать         работать       ?</t>
+          <t>в     какой     обстановка     вы     предпочитать     работать    ?</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>чего         вы         ждать         от         новый         работа       ?</t>
+          <t>чего     вы     ждать     от     новый     работа    ?</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>почему         вы         хотеть         получать         этот         работа       ?</t>
+          <t>почему     вы     хотеть     получать     этот     работа    ?</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>почему         вы         увольнять       ?</t>
+          <t>почему     вы     увольнять    ?</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>почему         этот         должность         освобождаться       ?</t>
+          <t>почему     этот     должность     освобождаться    ?</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>сколько         еще         собеседование         и         с         кто         я         нужно         быть         проходить    ,     прежде         чем         вы         смочь         принимать         решение         относительно         мой         кандидатура       ?</t>
+          <t>сколько     еще     собеседование     и     с     кто     я     нужно     быть     проходить     прежде     чем     вы     смочь     принимать     решение     относительно     мой     кандидатура    ?</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>с         какой         оборудование         и         программный         обеспечение         я         предстоять         работать       ?</t>
+          <t>с     какой     оборудование     и     программный     обеспечение     я     предстоять     работать    ?</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>где         я         быть         работать       ?</t>
+          <t>где     я     быть     работать    ?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>я         быть         работать         один         или         в         команда       ?</t>
+          <t>я     быть     работать     один     или     в     команда    ?</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>нужный         профессиональный         консультация       ?</t>
+          <t>нужный     профессиональный     консультация    ?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>how       is       your       business     ?</t>
+          <t>how    is    your    business   ?</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>как       дело     ?    —    да   , —    отвечать       я     .    —    я       в       порядок     .</t>
+          <t xml:space="preserve">как    дело   ?  —   да   —  отвечать    я     —  я    в    порядок   </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>как       дело       у       ты     ?    —    все       хорошо     .</t>
+          <t xml:space="preserve">как    дело    у    ты   ?  —   все    хорошо   </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>у       ты       дело       как     ?    —    да   , —    отвечать       я     .    —    у       я</t>
+          <t>у    ты    дело    как   ?  —   да   —  отвечать    я     —  у    я</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>как       твой       дело     ?    —    все       хорошо     .    —    ты       не       мочь       я       помогать</t>
+          <t>как    твой    дело   ?  —   все    хорошо     —   ты    не    мочь    я    помогать</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>как       твой       дело     ?</t>
+          <t>как    твой    дело   ?</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>как         погода       ?</t>
+          <t>как     погода    ?</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>как         дело       ?</t>
+          <t>как     дело    ?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>как         дело       ?</t>
+          <t>как     дело    ?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>как         дело       ?</t>
+          <t>как     дело    ?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>как         идти         дело       ?</t>
+          <t>как     идти     дело    ?</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>как         оно       ?</t>
+          <t>как     оно    ?</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>как         оно       ?</t>
+          <t>как     оно    ?</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>how       is       your       business     ?</t>
+          <t>how    is    your    business   ?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1878,7 +1878,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>как       дело     ?    —    да   , —    отвечать       я     .    —    я       в       порядок     .</t>
+          <t xml:space="preserve">как    дело   ?  —   да   —  отвечать    я     —  я    в    порядок   </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>как       дело       у       ты     ?    —    все       хорошо     .</t>
+          <t xml:space="preserve">как    дело    у    ты   ?  —   все    хорошо   </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>у       ты       дело       как     ?    —    да   , —    отвечать       я     .    —    у       я</t>
+          <t>у    ты    дело    как   ?  —   да   —  отвечать    я     —  у    я</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1923,7 +1923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>как       твой       дело     ?    —    все       хорошо     .    —    ты       не       мочь       я       помогать</t>
+          <t>как    твой    дело   ?  —   все    хорошо     —   ты    не    мочь    я    помогать</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>как       твой       дело     ?</t>
+          <t>как    твой    дело   ?</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>как         погода       ?</t>
+          <t>как     погода    ?</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>как         дело       ?</t>
+          <t>как     дело    ?</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>как         дело       ?</t>
+          <t>как     дело    ?</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>как         дело       ?</t>
+          <t>как     дело    ?</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>как         идти         дело       ?</t>
+          <t>как     идти     дело    ?</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>как         оно       ?</t>
+          <t>как     оно    ?</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2043,7 +2043,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>как         оно       ?</t>
+          <t>как     оно    ?</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2058,7 +2058,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>how       is       your       business     ?</t>
+          <t>how    is    your    business   ?</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>как       дело     ?    —    да   , —    отвечать       я     .    —    я       в       порядок     .</t>
+          <t xml:space="preserve">как    дело   ?  —   да   —  отвечать    я     —  я    в    порядок   </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>как       дело       у       ты     ?    —    все       хорошо     .</t>
+          <t xml:space="preserve">как    дело    у    ты   ?  —   все    хорошо   </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>у       ты       дело       как     ?    —    да   , —    отвечать       я     .    —    у       я</t>
+          <t>у    ты    дело    как   ?  —   да   —  отвечать    я     —  у    я</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>как       твой       дело     ?    —    все       хорошо     .    —    ты       не       мочь       я       помогать</t>
+          <t>как    твой    дело   ?  —   все    хорошо     —   ты    не    мочь    я    помогать</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>как       твой       дело     ?</t>
+          <t>как    твой    дело   ?</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>погода       в       москва       в       этот       год       быть       не       очень       хороший     ?</t>
+          <t>погода    в    москва    в    этот    год    быть    не    очень    хороший   ?</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>дождь     ?</t>
+          <t>дождь   ?</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>снег     ?</t>
+          <t>снег   ?</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>град     ?</t>
+          <t>град   ?</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2208,7 +2208,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>изморось     ?</t>
+          <t>изморось   ?</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>солнце       ярко       светить     ?</t>
+          <t>солнце    ярко    светить   ?</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>небо       ясный     ?</t>
+          <t>небо    ясный   ?</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>небо       чисто     ?</t>
+          <t>небо    чисто   ?</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>чистый       небо     ?</t>
+          <t>чистый    небо   ?</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2283,7 +2283,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ярко       ли       солнце       светить       с       утро     ?</t>
+          <t>ярко    ли    солнце    светить    с    утро   ?</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2298,7 +2298,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>утро       быть       дождь     ?</t>
+          <t>утро    быть    дождь   ?</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>когда       быть       ясный     ?</t>
+          <t>когда    быть    ясный   ?</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2328,7 +2328,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>когда       быть       дождь     ?</t>
+          <t>когда    быть    дождь   ?</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>дождь       когда       то       быть     ?</t>
+          <t>дождь    когда    то    быть   ?</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>снегопад   ,    который       начинаться       в       воскресение       проходить     ?</t>
+          <t>снегопад    который    начинаться    в    воскресение    проходить   ?</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>謝     謝</t>
+          <t>謝   謝</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2463,7 +2463,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>谢     谢</t>
+          <t>谢   谢</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>добро     благодарность     ждать    —</t>
+          <t>добро   благодарность   ждать  —</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>бесконечно     благодарный     существовать</t>
+          <t>бесконечно   благодарный   существовать</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>благодарность     быстро     стареть</t>
+          <t>благодарность   быстро   стареть</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2523,7 +2523,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>принимать     благодеяние     благодарность     уплачивать     первый     взнос</t>
+          <t>принимать   благодеяние   благодарность   уплачивать   первый   взнос</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>благодарить     господин     жизнь     который     сей     пора     абсолютно     чудесный</t>
+          <t>благодарить   господин   жизнь   который   сей   пора   абсолютно   чудесный</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>благодарить     благодарить</t>
+          <t>благодарить   благодарить</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>спасибо     господи     каждый     новый     день</t>
+          <t>спасибо   господи   каждый   новый   день</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2583,7 +2583,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>благодарить      уметь     благодарить</t>
+          <t>благодарить   уметь   благодарить</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>благодарить     …     способность     дар</t>
+          <t>благодарить   …   способность   дар</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>благодарить     …     рожать</t>
+          <t>благодарить   …   рожать</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>благодарить     каждый     лепесток</t>
+          <t>благодарить   каждый   лепесток</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>благодарить     часто     вверх     смотреть</t>
+          <t>благодарить   часто   вверх   смотреть</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>благодарить     …     требовать     взамен     …</t>
+          <t>благодарить   …   требовать   взамен   …</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>благодарить     конец     …</t>
+          <t>благодарить   конец   …</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>спасибо     милый</t>
+          <t>спасибо   милый</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2718,7 +2718,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>сила     наш     благодарность</t>
+          <t>сила   наш   благодарность</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>спасибо     любимый     друг</t>
+          <t>спасибо   любимый   друг</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>справляться     смочь     осиливать</t>
+          <t>справляться   смочь   осиливать</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>благодарность     знать     граница</t>
+          <t>благодарность   знать   граница</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>очень     обязанный</t>
+          <t>очень   обязанный</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>знать     делать</t>
+          <t>знать   делать</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>спасибо     сделать</t>
+          <t>спасибо   сделать</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>большой     чистый     спасибо</t>
+          <t>большой   чистый   спасибо</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>хотеть     искренне     поблагодарить</t>
+          <t>хотеть   искренне   поблагодарить</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>невероятно     ценить     сделать</t>
+          <t>невероятно   ценить   сделать</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>обязанный     должный</t>
+          <t>обязанный   должный</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>делать     ситуация</t>
+          <t>делать   ситуация</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>знать     отблагодарить</t>
+          <t>знать   отблагодарить</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>тысяча     слово    «   спасибо   »    хватить     выражать     насколько     благодарный</t>
+          <t>тысяча   слово  «  спасибо  »  хватить   выражать   насколько   благодарный</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>мочь     помогать</t>
+          <t>мочь   помогать</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>это     забывать</t>
+          <t>это   забывать</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>благодарить     судьба     посылать     замечательный     человек</t>
+          <t>благодарить   судьба   посылать   замечательный   человек</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>благодарить     забывать     это</t>
+          <t>благодарить   забывать   это</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3033,7 +3033,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>спасибо     преогромный     сомнение     ваш     поступок     забывать</t>
+          <t>спасибо   преогромный   сомнение   ваш   поступок   забывать</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>невозможно     выражать     слово     благодарный     …</t>
+          <t>невозможно   выражать   слово   благодарный   …</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>очень     признательный</t>
+          <t>очень   признательный</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>вельми     понеже     премного     благодарный     древний     русский</t>
+          <t>вельми   понеже   премного   благодарный   древний   русский</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>спасибо     уважать     поступок     человек</t>
+          <t>спасибо   уважать   поступок   человек</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ваш     услуга     участие     неоценимый</t>
+          <t>ваш   услуга   участие   неоценимый</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>огромный     спасибо     …</t>
+          <t>огромный   спасибо   …</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>спасибо     протягивать     рука     помощь</t>
+          <t>спасибо   протягивать   рука   помощь</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>благодарить     добросовестный     отношение     ко</t>
+          <t>благодарить   добросовестный   отношение   ко</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3198,7 +3198,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>вовремя     помогать     помогать</t>
+          <t>вовремя   помогать   помогать</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3213,7 +3213,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>спасибо     ваш     старание     стремление</t>
+          <t>спасибо   ваш   старание   стремление</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3228,7 +3228,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>спасать     бог     господь</t>
+          <t>спасать   бог   господь</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>вовремя     подвертываться     посылать     бог</t>
+          <t>вовремя   подвертываться   посылать   бог</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>премного     благодарный</t>
+          <t>премного   благодарный</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>очень     помогать</t>
+          <t>очень   помогать</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>выражать     слово     весь</t>
+          <t>выражать   слово   весь</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3303,7 +3303,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>мочь     передавать     благодарность     слово</t>
+          <t>мочь   передавать   благодарность   слово</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ваш     должник</t>
+          <t>ваш   должник</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3348,7 +3348,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>очень     везти     обращаться</t>
+          <t>очень   везти   обращаться</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>принимать     искренний     глубокий     благодарность</t>
+          <t>принимать   искренний   глубокий   благодарность</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3378,7 +3378,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>искренне     весь     душа     помнить     день</t>
+          <t>искренне   весь   душа   помнить   день</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>благодарность     предел</t>
+          <t>благодарность   предел</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>выражать     свой     признательность</t>
+          <t>выражать   свой   признательность</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>большой     спасибо</t>
+          <t>большой   спасибо</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>очень     признательный</t>
+          <t>очень   признательный</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>хватать     слово     выражать     свой     благодарность</t>
+          <t>хватать   слово   выражать   свой   благодарность</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>забывать     ваш     участие</t>
+          <t>забывать   ваш   участие</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ваш     помощь     оказываться     очень     кстати</t>
+          <t>ваш   помощь   оказываться   очень   кстати</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>благодарный     содеять</t>
+          <t>благодарный   содеять</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>выражать     слово     благодарность</t>
+          <t>выражать   слово   благодарность</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>премного     благодарный</t>
+          <t>премного   благодарный</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>сказать     спасибо</t>
+          <t>сказать   спасибо</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>спасибо     сказать</t>
+          <t>спасибо   сказать</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>благо     дарить</t>
+          <t>благо   дарить</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>крч     скачать     нейронка     распознавание     фотка</t>
+          <t>крч   скачать   нейронка   распознавание   фотка</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3933,7 +3933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>москва     хуйня</t>
+          <t>москва   хуйня</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>поход     класс     перевешиает</t>
+          <t>поход   класс   перевешиает</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>б     просто     финансы     беспечивать     простой     человек     интересный</t>
+          <t>б   просто   финансы   беспечивать   простой   человек   интересный</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3978,7 +3978,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>никита     скидывать     робот     макрос     код     макрос     хотябать     выкладывать</t>
+          <t>никита   скидывать   робот   макрос   код   макрос   хотябать   выкладывать</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3993,7 +3993,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>очки     удар     накинуть     наверное     стерлинг     несколько     удушать     взять</t>
+          <t>очки   удар   накинуть   наверное   стерлинг   несколько   удушать   взять</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4008,7 +4008,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>бакалавр     манистра</t>
+          <t>бакалавр   манистра</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>инф     владеть     даж     расширение     мочь     давать     комментарий</t>
+          <t>инф   владеть   даж   расширение   мочь   давать   комментарий</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>поход     просто     конец     шарить</t>
+          <t>поход   просто   конец   шарить</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4068,7 +4068,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>переделывать     доховать</t>
+          <t>переделывать   доховать</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>суть     лавка     работать</t>
+          <t>суть   лавка   работать</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>программа     собеседник     напоминать     личный     секретарь     круг     обязанность     входить     информирование     погода     перевод     деньги     напоминание     важный     событие     запись     прием     врач     многий</t>
+          <t>программа   собеседник   напоминать   личный   секретарь   круг   обязанность   входить   информирование   погода   перевод   деньги   напоминание   важный   событие   запись   прием   врач   многий</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>помощь     botfather     создавать     новый     бот     telegram     изменять     настройка     существующий     например     добавлять     описание     устанавливать     аватарка     бот</t>
+          <t>помощь   botfather   создавать   новый   бот   telegram   изменять   настройка   существующий   например   добавлять   описание   устанавливать   аватарка   бот</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>бранить     погода          –          меняться     девять     человек     десять     смочь     начинать     разговор</t>
+          <t>бранить   погода     –     меняться   девять   человек   десять   смочь   начинать   разговор</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>климат     ирландия     изумительный     погода     гробить</t>
+          <t>климат   ирландия   изумительный   погода   гробить</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>нравиться     погода     новый     англия     подождать     несколько     минута</t>
+          <t>нравиться   погода   новый   англия   подождать   несколько   минута</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>метеорология     научный     обоснование     неверный     прогноз</t>
+          <t>метеорология   научный   обоснование   неверный   прогноз</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>метеоролог     лишь     различный     образ     объяснять     погода     дело     заключаться     изменять</t>
+          <t>метеоролог   лишь   различный   образ   объяснять   погода   дело   заключаться   изменять</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>плохой     погода     бывать     бывать     неподходящий     костюм     сэр     ранульф     файнс</t>
+          <t>плохой   погода   бывать   бывать   неподходящий   костюм   сэр   ранульф   файнс</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4308,7 +4308,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>идти     дело</t>
+          <t>идти   дело</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>заниматься     весь     время</t>
+          <t>заниматься   весь   время</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4383,7 +4383,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>заниматься     весь     время</t>
+          <t>заниматься   весь   время</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>особенный     вопрос     ответ</t>
+          <t>особенный   вопрос   ответ</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>oh     ’     really     great     complaints     ’     going</t>
+          <t>oh   ’   really   great   complaints   ’   going</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>хотеть     свой     день     рождение</t>
+          <t>хотеть   свой   день   рождение</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -4653,7 +4653,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>аудитория     твой</t>
+          <t>аудитория   твой</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>планировать     путешествовать</t>
+          <t>планировать   путешествовать</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -4683,7 +4683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>твой     экзамен</t>
+          <t>твой   экзамен</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>собираться     навещать     люся</t>
+          <t>собираться   навещать   люся</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>почему     ходить     парк     вчера</t>
+          <t>почему   ходить   парк   вчера</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>долго     оставаться     лондон</t>
+          <t>долго   оставаться   лондон</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -4743,7 +4743,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>удаваться     получать     диплом</t>
+          <t>удаваться   получать   диплом</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -4758,7 +4758,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>сколько     человек     твой     офис</t>
+          <t>сколько   человек   твой   офис</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -4773,7 +4773,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>сколько     деньги     нужно</t>
+          <t>сколько   деньги   нужно</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -4788,7 +4788,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>чей     это     машина</t>
+          <t>чей   это   машина</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -4803,7 +4803,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>звонить     прошлый     ночь</t>
+          <t>звонить   прошлый   ночь</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -4818,7 +4818,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>приводить     твой     сестра     школа</t>
+          <t>приводить   твой   сестра   школа</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -4833,7 +4833,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>заставлять     улыбаться</t>
+          <t>заставлять   улыбаться</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -4848,7 +4848,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>call     last     night</t>
+          <t>call   last   night</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4863,7 +4863,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>brought     sister     school</t>
+          <t>brought   sister   school</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -4878,7 +4878,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>makes     smile</t>
+          <t>makes   smile</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4893,7 +4893,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>much     money     need</t>
+          <t>much   money   need</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4908,7 +4908,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>call     last     night</t>
+          <t>call   last   night</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4923,7 +4923,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>go     park     yesterday</t>
+          <t>go   park   yesterday</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4938,7 +4938,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>going     visit     lucy</t>
+          <t>going   visit   lucy</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4953,7 +4953,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>твой     дело     —     —     мочь     помогать</t>
+          <t>твой   дело   —   —   мочь   помогать</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>твой     дело</t>
+          <t>твой   дело</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -5043,7 +5043,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>идти     дело</t>
+          <t>идти   дело</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5103,7 +5103,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>дело     —     —     отвечать     —     порядок</t>
+          <t>дело   —    —   отвечать   —   порядок</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5118,7 +5118,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t xml:space="preserve">дело     — </t>
+          <t xml:space="preserve">дело   — </t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5133,7 +5133,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>дело     —     —     отвечать     —</t>
+          <t>дело   —    —   отвечать   —</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5148,7 +5148,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>твой     дело     —     —     мочь     помогать</t>
+          <t>твой   дело   —   —   мочь   помогать</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5163,7 +5163,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>твой     дело</t>
+          <t>твой   дело</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5178,7 +5178,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>погода     москва     год     очень     хороший</t>
+          <t>погода   москва   год   очень   хороший</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5253,7 +5253,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>солнце     ярко     светить</t>
+          <t>солнце   ярко   светить</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>небо     ясный</t>
+          <t>небо   ясный</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5283,7 +5283,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>небо     чисто</t>
+          <t>небо   чисто</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5298,7 +5298,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>чистый     небо</t>
+          <t>чистый   небо</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5313,7 +5313,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ярко     солнце     светить     утро</t>
+          <t>ярко   солнце   светить   утро</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5328,7 +5328,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>утро     дождь</t>
+          <t>утро   дождь</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5388,7 +5388,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>снегопад     который     начинаться     воскресение     проходить</t>
+          <t>снегопад   который   начинаться   воскресение   проходить</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5583,7 +5583,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>мис     решать</t>
+          <t>мис   решать</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -5598,7 +5598,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>мис     становиться</t>
+          <t>мис   становиться</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5613,7 +5613,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>мис     фас</t>
+          <t>мис   фас</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -5628,7 +5628,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>мис     расходиться</t>
+          <t>мис   расходиться</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -5643,7 +5643,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>мис     садиться</t>
+          <t>мис   садиться</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -5658,7 +5658,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>мис     уходить</t>
+          <t>мис   уходить</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -5673,7 +5673,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>мис     распознавать</t>
+          <t>мис   распознавать</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -5688,7 +5688,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>мис     увеличивать</t>
+          <t>мис   увеличивать</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -5703,7 +5703,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>мис     уменьшать</t>
+          <t>мис   уменьшать</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -5718,7 +5718,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>мис     устанавливать</t>
+          <t>мис   устанавливать</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -5733,7 +5733,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>мис     выключать</t>
+          <t>мис   выключать</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>мис     включать</t>
+          <t>мис   включать</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -5763,7 +5763,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>мис     включать</t>
+          <t>мис   включать</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -5778,7 +5778,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t xml:space="preserve">   мис     включать</t>
+          <t xml:space="preserve">  мис   включать</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5793,7 +5793,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>мис     включать     музыка   .</t>
+          <t xml:space="preserve">мис   включать   музыка  </t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -5808,7 +5808,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>мис     включать     что-нибудь   .</t>
+          <t xml:space="preserve">мис   включать   чтонибудь  </t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5823,7 +5823,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>мис     выключать     музыка   .</t>
+          <t xml:space="preserve">мис   выключать   музыка  </t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -5838,7 +5838,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>включать     музыка     из     google     music</t>
+          <t>включать   музыка   из   google   music</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -5853,7 +5853,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>мис     включать     песня   «  впускать     музыка  »  .</t>
+          <t xml:space="preserve">мис   включать   песня  « впускать   музыка » </t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -5868,7 +5868,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>мис     включать     песня   «  моряк  »  .</t>
+          <t xml:space="preserve">мис   включать   песня  « моряк » </t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -5883,7 +5883,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>включать     песня     по     название</t>
+          <t>включать   песня   по   название</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -5898,7 +5898,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>мис     включать     последний     альбом     би  -  2   .</t>
+          <t xml:space="preserve">мис   включать   последний   альбом   би    </t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -5913,7 +5913,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>мис     включать     альбом   «  meteora  »   linkin     park   .</t>
+          <t xml:space="preserve">мис   включать   альбом  « meteora »  linkin   park  </t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -5928,7 +5928,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>включать     альбом</t>
+          <t>включать   альбом</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -5943,7 +5943,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>мис     следующий     трек   .</t>
+          <t xml:space="preserve">мис   следующий   трек  </t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -5958,7 +5958,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>мис     предыдущий     трек   .</t>
+          <t xml:space="preserve">мис   предыдущий   трек  </t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -5973,7 +5973,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>мис     15     умножать     на     16   .</t>
+          <t xml:space="preserve">мис     умножать   на    </t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -5988,7 +5988,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>мис     420     разделять     на     15   .</t>
+          <t xml:space="preserve">мис     разделять   на    </t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -6003,7 +6003,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>мис     расписание     кинотеатр     на     завтра   .</t>
+          <t xml:space="preserve">мис   расписание   кинотеатр   на   завтра  </t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6018,7 +6018,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>мис     включать     телевизор   .</t>
+          <t xml:space="preserve">мис   включать   телевизор  </t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6033,7 +6033,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>мис     выключать     телевизор   .</t>
+          <t xml:space="preserve">мис   выключать   телевизор  </t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6048,7 +6048,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>мис     пауза   .</t>
+          <t xml:space="preserve">мис   пауза  </t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6063,7 +6063,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>мис     возобновлять   .</t>
+          <t xml:space="preserve">мис   возобновлять  </t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6078,7 +6078,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>мис     далеко   .</t>
+          <t xml:space="preserve">мис   далеко  </t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6093,7 +6093,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>мис     предыдущий     видео   .</t>
+          <t xml:space="preserve">мис   предыдущий   видео  </t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6108,7 +6108,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>мис     сделать     громко   .</t>
+          <t xml:space="preserve">мис   сделать   громко  </t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6123,7 +6123,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>мис     сделать     тихо   .</t>
+          <t xml:space="preserve">мис   сделать   тихо  </t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6138,7 +6138,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>мис     включать     ютуб   .</t>
+          <t xml:space="preserve">мис   включать   ютуб  </t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6153,7 +6153,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>мис     включать     трейлер     вено     на     телевизор   .</t>
+          <t xml:space="preserve">мис   включать   трейлер   вено   на   телевизор  </t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6168,7 +6168,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>мис     включать     веселый     видео   .</t>
+          <t xml:space="preserve">мис   включать   веселый   видео  </t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6183,7 +6183,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>мис     показывать     клип     linkin     park   .</t>
+          <t xml:space="preserve">мис   показывать   клип   linkin   park  </t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6198,7 +6198,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>мис     включать     новость   .</t>
+          <t xml:space="preserve">мис   включать   новость  </t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6213,7 +6213,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>мис     рассказывать     новость   .</t>
+          <t xml:space="preserve">мис   рассказывать   новость  </t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6228,7 +6228,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>мис     новость     спорт   .</t>
+          <t xml:space="preserve">мис   новость   спорт  </t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6243,7 +6243,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>мис     новость     политика   .</t>
+          <t xml:space="preserve">мис   новость   политика  </t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6258,7 +6258,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t xml:space="preserve">   решать</t>
+          <t xml:space="preserve">  решать</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6273,7 +6273,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t xml:space="preserve">   становиться</t>
+          <t xml:space="preserve">  становиться</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6288,7 +6288,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t xml:space="preserve">   фас</t>
+          <t xml:space="preserve">  фас</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6303,7 +6303,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t xml:space="preserve">   расходиться</t>
+          <t xml:space="preserve">  расходиться</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t xml:space="preserve">   садиться</t>
+          <t xml:space="preserve">  садиться</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6333,7 +6333,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t xml:space="preserve">   уходить</t>
+          <t xml:space="preserve">  уходить</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -6348,7 +6348,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t xml:space="preserve">   распознавать</t>
+          <t xml:space="preserve">  распознавать</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -6363,7 +6363,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t xml:space="preserve">   увеличивать</t>
+          <t xml:space="preserve">  увеличивать</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6378,7 +6378,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t xml:space="preserve">   уменьшать</t>
+          <t xml:space="preserve">  уменьшать</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -6393,7 +6393,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t xml:space="preserve">   устанавливать</t>
+          <t xml:space="preserve">  устанавливать</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6408,7 +6408,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t xml:space="preserve">   выключать</t>
+          <t xml:space="preserve">  выключать</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -6423,7 +6423,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать</t>
+          <t xml:space="preserve">  включать</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -6438,7 +6438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать</t>
+          <t xml:space="preserve">  включать</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -6453,7 +6453,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t xml:space="preserve">    включать</t>
+          <t xml:space="preserve">  включать</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -6468,7 +6468,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     музыка   .</t>
+          <t xml:space="preserve">  включать   музыка  </t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -6483,7 +6483,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     что-нибудь   .</t>
+          <t xml:space="preserve">  включать   чтонибудь  </t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -6498,7 +6498,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t xml:space="preserve">   выключать     музыка   .</t>
+          <t xml:space="preserve">  выключать   музыка  </t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -6513,7 +6513,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>включать     музыка     из     google     music</t>
+          <t>включать   музыка   из   google   music</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6528,7 +6528,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     песня   «  впускать     музыка  »  .</t>
+          <t xml:space="preserve">  включать   песня  « впускать   музыка » </t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -6543,7 +6543,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     песня   «  моряк  »  .</t>
+          <t xml:space="preserve">  включать   песня  « моряк » </t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6558,7 +6558,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>включать     песня     по     название</t>
+          <t>включать   песня   по   название</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -6573,7 +6573,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     последний     альбом     би  -  2   .</t>
+          <t xml:space="preserve">  включать   последний   альбом   би    </t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -6588,7 +6588,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     альбом   «  meteora  »   linkin     park   .</t>
+          <t xml:space="preserve">  включать   альбом  « meteora »  linkin   park  </t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -6603,7 +6603,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>включать     альбом</t>
+          <t>включать   альбом</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t xml:space="preserve">   следующий     трек   .</t>
+          <t xml:space="preserve">  следующий   трек  </t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -6633,7 +6633,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t xml:space="preserve">   предыдущий     трек   .</t>
+          <t xml:space="preserve">  предыдущий   трек  </t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -6648,7 +6648,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t xml:space="preserve">   15     умножать     на     16   .</t>
+          <t xml:space="preserve">    умножать   на    </t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -6663,7 +6663,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t xml:space="preserve">   420     разделять     на     15   .</t>
+          <t xml:space="preserve">    разделять   на    </t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -6678,7 +6678,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t xml:space="preserve">   расписание     кинотеатр     на     завтра   .</t>
+          <t xml:space="preserve">  расписание   кинотеатр   на   завтра  </t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6693,7 +6693,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     телевизор   .</t>
+          <t xml:space="preserve">  включать   телевизор  </t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -6708,7 +6708,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t xml:space="preserve">   выключать     телевизор   .</t>
+          <t xml:space="preserve">  выключать   телевизор  </t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6723,7 +6723,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t xml:space="preserve">   пауза   .</t>
+          <t xml:space="preserve">  пауза  </t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -6738,7 +6738,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t xml:space="preserve">   возобновлять   .</t>
+          <t xml:space="preserve">  возобновлять  </t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -6753,7 +6753,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t xml:space="preserve">   далеко   .</t>
+          <t xml:space="preserve">  далеко  </t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -6768,7 +6768,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t xml:space="preserve">   предыдущий     видео   .</t>
+          <t xml:space="preserve">  предыдущий   видео  </t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -6783,7 +6783,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t xml:space="preserve">   сделать     громко   .</t>
+          <t xml:space="preserve">  сделать   громко  </t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -6798,7 +6798,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t xml:space="preserve">   сделать     тихо   .</t>
+          <t xml:space="preserve">  сделать   тихо  </t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -6813,7 +6813,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     ютуб   .</t>
+          <t xml:space="preserve">  включать   ютуб  </t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6828,7 +6828,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     трейлер     вено     на     телевизор   .</t>
+          <t xml:space="preserve">  включать   трейлер   вено   на   телевизор  </t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -6843,7 +6843,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     веселый     видео   .</t>
+          <t xml:space="preserve">  включать   веселый   видео  </t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -6858,7 +6858,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t xml:space="preserve">   показывать     клип     linkin     park   .</t>
+          <t xml:space="preserve">  показывать   клип   linkin   park  </t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -6873,7 +6873,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     новость   .</t>
+          <t xml:space="preserve">  включать   новость  </t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -6888,7 +6888,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t xml:space="preserve">   рассказывать     новость   .</t>
+          <t xml:space="preserve">  рассказывать   новость  </t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -6903,7 +6903,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t xml:space="preserve">   новость     спорт   .</t>
+          <t xml:space="preserve">  новость   спорт  </t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -6918,7 +6918,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t xml:space="preserve">   новость     политика   .</t>
+          <t xml:space="preserve">  новость   политика  </t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -6933,7 +6933,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>спасибо     быстро     отвечать    —    знать     сказать</t>
+          <t>спасибо   быстро   отвечать  —   знать   сказать</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6948,7 +6948,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>благодарить     внимание</t>
+          <t>благодарить   внимание</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -8448,7 +8448,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>покрасить   !</t>
+          <t xml:space="preserve">покрасить  </t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -8463,7 +8463,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>сделать   !</t>
+          <t xml:space="preserve">сделать  </t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -8478,7 +8478,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>распознавать   !</t>
+          <t xml:space="preserve">распознавать  </t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -8493,7 +8493,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>сказать   !</t>
+          <t xml:space="preserve">сказать  </t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -8508,7 +8508,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>уходить   !</t>
+          <t xml:space="preserve">уходить  </t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -8523,7 +8523,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>приходить   !</t>
+          <t xml:space="preserve">приходить  </t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -8538,7 +8538,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>отходить   !</t>
+          <t xml:space="preserve">отходить  </t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -8553,7 +8553,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>стоять   !</t>
+          <t xml:space="preserve">стоять  </t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -8568,7 +8568,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>идти   !</t>
+          <t xml:space="preserve">идти  </t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -8583,7 +8583,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>назать   !</t>
+          <t xml:space="preserve">назать  </t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -8598,7 +8598,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>давать   !</t>
+          <t xml:space="preserve">давать  </t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -8613,7 +8613,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>выбирать   !</t>
+          <t xml:space="preserve">выбирать  </t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -8628,7 +8628,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>быть   !</t>
+          <t xml:space="preserve">быть  </t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -8643,7 +8643,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>молчать   !</t>
+          <t xml:space="preserve">молчать  </t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -8658,7 +8658,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>сказать   !</t>
+          <t xml:space="preserve">сказать  </t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -8688,7 +8688,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>знать   !</t>
+          <t xml:space="preserve">знать  </t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -8703,7 +8703,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>стоять   !</t>
+          <t xml:space="preserve">стоять  </t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -8718,7 +8718,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>хотеть   !</t>
+          <t xml:space="preserve">хотеть  </t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -8733,7 +8733,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>иметь   !</t>
+          <t xml:space="preserve">иметь  </t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -8748,7 +8748,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>видеть   !</t>
+          <t xml:space="preserve">видеть  </t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -9993,7 +9993,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>говорить   !</t>
+          <t xml:space="preserve">говорить  </t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -10008,7 +10008,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>сказать   !</t>
+          <t xml:space="preserve">сказать  </t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -11508,7 +11508,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>покрасить   !</t>
+          <t xml:space="preserve">покрасить  </t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -11523,7 +11523,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>сделать   !</t>
+          <t xml:space="preserve">сделать  </t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -11538,7 +11538,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>распознавать   !</t>
+          <t xml:space="preserve">распознавать  </t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -11553,7 +11553,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>сказать   !</t>
+          <t xml:space="preserve">сказать  </t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -11568,7 +11568,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>уходить   !</t>
+          <t xml:space="preserve">уходить  </t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -11583,7 +11583,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>приходить   !</t>
+          <t xml:space="preserve">приходить  </t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -11598,7 +11598,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>отходить   !</t>
+          <t xml:space="preserve">отходить  </t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -11613,7 +11613,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>стоять   !</t>
+          <t xml:space="preserve">стоять  </t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -11628,7 +11628,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>идти   !</t>
+          <t xml:space="preserve">идти  </t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -11643,7 +11643,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>назать   !</t>
+          <t xml:space="preserve">назать  </t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -11658,7 +11658,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>давать   !</t>
+          <t xml:space="preserve">давать  </t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -11673,7 +11673,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>выбирать   !</t>
+          <t xml:space="preserve">выбирать  </t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -11688,7 +11688,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>быть   !</t>
+          <t xml:space="preserve">быть  </t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -11703,7 +11703,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>молчать   !</t>
+          <t xml:space="preserve">молчать  </t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -11718,7 +11718,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>сказать   !</t>
+          <t xml:space="preserve">сказать  </t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -11748,7 +11748,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>знать   !</t>
+          <t xml:space="preserve">знать  </t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -11763,7 +11763,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>стоять   !</t>
+          <t xml:space="preserve">стоять  </t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -11778,7 +11778,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>хотеть   !</t>
+          <t xml:space="preserve">хотеть  </t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -11793,7 +11793,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>иметь   !</t>
+          <t xml:space="preserve">иметь  </t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -11808,7 +11808,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>видеть   !</t>
+          <t xml:space="preserve">видеть  </t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -13023,7 +13023,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>мис     решать</t>
+          <t>мис   решать</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -13038,7 +13038,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>мис     становиться</t>
+          <t>мис   становиться</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -13053,7 +13053,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>мис     фас</t>
+          <t>мис   фас</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -13068,7 +13068,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>мис     расходиться</t>
+          <t>мис   расходиться</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -13083,7 +13083,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>мис     садиться</t>
+          <t>мис   садиться</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -13098,7 +13098,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>мис     уходить</t>
+          <t>мис   уходить</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -13113,7 +13113,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>мис     распознавать</t>
+          <t>мис   распознавать</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -13128,7 +13128,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>мис     увеличивать</t>
+          <t>мис   увеличивать</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -13143,7 +13143,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>мис     уменьшать</t>
+          <t>мис   уменьшать</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -13158,7 +13158,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>мис     устанавливать</t>
+          <t>мис   устанавливать</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -13173,7 +13173,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>мис     выключать</t>
+          <t>мис   выключать</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -13188,7 +13188,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>мис     включать</t>
+          <t>мис   включать</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -13203,7 +13203,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>мис     включать</t>
+          <t>мис   включать</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -13218,7 +13218,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t xml:space="preserve">   мис     включать</t>
+          <t xml:space="preserve">  мис   включать</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -13233,7 +13233,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>мис     включать     музыка   .</t>
+          <t xml:space="preserve">мис   включать   музыка  </t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -13248,7 +13248,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>мис     включать     что-нибудь   .</t>
+          <t xml:space="preserve">мис   включать   чтонибудь  </t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -13263,7 +13263,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>мис     выключать     музыка   .</t>
+          <t xml:space="preserve">мис   выключать   музыка  </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -13278,7 +13278,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>включать     музыка     из     google     music</t>
+          <t>включать   музыка   из   google   music</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -13293,7 +13293,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>мис     включать     песня   «  впускать     музыка  »  .</t>
+          <t xml:space="preserve">мис   включать   песня  « впускать   музыка » </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -13308,7 +13308,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>мис     включать     песня   «  моряк  »  .</t>
+          <t xml:space="preserve">мис   включать   песня  « моряк » </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -13323,7 +13323,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>включать     песня     по     название</t>
+          <t>включать   песня   по   название</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -13338,7 +13338,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>мис     включать     последний     альбом     би  -  2   .</t>
+          <t xml:space="preserve">мис   включать   последний   альбом   би    </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -13353,7 +13353,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>мис     включать     альбом   «  meteora  »   linkin     park   .</t>
+          <t xml:space="preserve">мис   включать   альбом  « meteora »  linkin   park  </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -13368,7 +13368,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>включать     альбом</t>
+          <t>включать   альбом</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -13383,7 +13383,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>мис     следующий     трек   .</t>
+          <t xml:space="preserve">мис   следующий   трек  </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -13398,7 +13398,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>мис     предыдущий     трек   .</t>
+          <t xml:space="preserve">мис   предыдущий   трек  </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -13413,7 +13413,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>мис     15     умножать     на     16   .</t>
+          <t xml:space="preserve">мис     умножать   на    </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -13428,7 +13428,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>мис     420     разделять     на     15   .</t>
+          <t xml:space="preserve">мис     разделять   на    </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -13443,7 +13443,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>мис     расписание     кинотеатр     на     завтра   .</t>
+          <t xml:space="preserve">мис   расписание   кинотеатр   на   завтра  </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -13458,7 +13458,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>мис     включать     телевизор   .</t>
+          <t xml:space="preserve">мис   включать   телевизор  </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -13473,7 +13473,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>мис     выключать     телевизор   .</t>
+          <t xml:space="preserve">мис   выключать   телевизор  </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -13488,7 +13488,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>мис     пауза   .</t>
+          <t xml:space="preserve">мис   пауза  </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -13503,7 +13503,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>мис     возобновлять   .</t>
+          <t xml:space="preserve">мис   возобновлять  </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -13518,7 +13518,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>мис     далеко   .</t>
+          <t xml:space="preserve">мис   далеко  </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -13533,7 +13533,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>мис     предыдущий     видео   .</t>
+          <t xml:space="preserve">мис   предыдущий   видео  </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -13548,7 +13548,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>мис     сделать     громко   .</t>
+          <t xml:space="preserve">мис   сделать   громко  </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -13563,7 +13563,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>мис     сделать     тихо   .</t>
+          <t xml:space="preserve">мис   сделать   тихо  </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -13578,7 +13578,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>мис     включать     ютуб   .</t>
+          <t xml:space="preserve">мис   включать   ютуб  </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -13593,7 +13593,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>мис     включать     трейлер     вено     на     телевизор   .</t>
+          <t xml:space="preserve">мис   включать   трейлер   вено   на   телевизор  </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -13608,7 +13608,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>мис     включать     веселый     видео   .</t>
+          <t xml:space="preserve">мис   включать   веселый   видео  </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -13623,7 +13623,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>мис     показывать     клип     linkin     park   .</t>
+          <t xml:space="preserve">мис   показывать   клип   linkin   park  </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -13638,7 +13638,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>мис     включать     новость   .</t>
+          <t xml:space="preserve">мис   включать   новость  </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -13653,7 +13653,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>мис     рассказывать     новость   .</t>
+          <t xml:space="preserve">мис   рассказывать   новость  </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -13668,7 +13668,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>мис     новость     спорт   .</t>
+          <t xml:space="preserve">мис   новость   спорт  </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -13683,7 +13683,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>мис     новость     политика   .</t>
+          <t xml:space="preserve">мис   новость   политика  </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -13698,7 +13698,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t xml:space="preserve">   решать</t>
+          <t xml:space="preserve">  решать</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -13713,7 +13713,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">   становиться</t>
+          <t xml:space="preserve">  становиться</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -13728,7 +13728,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">   фас</t>
+          <t xml:space="preserve">  фас</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -13743,7 +13743,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">   расходиться</t>
+          <t xml:space="preserve">  расходиться</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -13758,7 +13758,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">   садиться</t>
+          <t xml:space="preserve">  садиться</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -13773,7 +13773,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t xml:space="preserve">   уходить</t>
+          <t xml:space="preserve">  уходить</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -13788,7 +13788,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t xml:space="preserve">   распознавать</t>
+          <t xml:space="preserve">  распознавать</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -13803,7 +13803,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t xml:space="preserve">   увеличивать</t>
+          <t xml:space="preserve">  увеличивать</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -13818,7 +13818,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t xml:space="preserve">   уменьшать</t>
+          <t xml:space="preserve">  уменьшать</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -13833,7 +13833,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">   устанавливать</t>
+          <t xml:space="preserve">  устанавливать</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -13848,7 +13848,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t xml:space="preserve">   выключать</t>
+          <t xml:space="preserve">  выключать</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -13863,7 +13863,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать</t>
+          <t xml:space="preserve">  включать</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -13878,7 +13878,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать</t>
+          <t xml:space="preserve">  включать</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -13893,7 +13893,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t xml:space="preserve">    включать</t>
+          <t xml:space="preserve">  включать</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -13908,7 +13908,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     музыка   .</t>
+          <t xml:space="preserve">  включать   музыка  </t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -13923,7 +13923,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     что-нибудь   .</t>
+          <t xml:space="preserve">  включать   чтонибудь  </t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -13938,7 +13938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t xml:space="preserve">   выключать     музыка   .</t>
+          <t xml:space="preserve">  выключать   музыка  </t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -13953,7 +13953,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>включать     музыка     из     google     music</t>
+          <t>включать   музыка   из   google   music</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -13968,7 +13968,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     песня   «  впускать     музыка  »  .</t>
+          <t xml:space="preserve">  включать   песня  « впускать   музыка » </t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -13983,7 +13983,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     песня   «  моряк  »  .</t>
+          <t xml:space="preserve">  включать   песня  « моряк » </t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -13998,7 +13998,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>включать     песня     по     название</t>
+          <t>включать   песня   по   название</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -14013,7 +14013,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     последний     альбом     би  -  2   .</t>
+          <t xml:space="preserve">  включать   последний   альбом   би    </t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -14028,7 +14028,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     альбом   «  meteora  »   linkin     park   .</t>
+          <t xml:space="preserve">  включать   альбом  « meteora »  linkin   park  </t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -14043,7 +14043,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>включать     альбом</t>
+          <t>включать   альбом</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -14058,7 +14058,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t xml:space="preserve">   следующий     трек   .</t>
+          <t xml:space="preserve">  следующий   трек  </t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -14073,7 +14073,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t xml:space="preserve">   предыдущий     трек   .</t>
+          <t xml:space="preserve">  предыдущий   трек  </t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -14088,7 +14088,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t xml:space="preserve">   15     умножать     на     16   .</t>
+          <t xml:space="preserve">    умножать   на    </t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -14103,7 +14103,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t xml:space="preserve">   420     разделять     на     15   .</t>
+          <t xml:space="preserve">    разделять   на    </t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -14118,7 +14118,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t xml:space="preserve">   расписание     кинотеатр     на     завтра   .</t>
+          <t xml:space="preserve">  расписание   кинотеатр   на   завтра  </t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -14133,7 +14133,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     телевизор   .</t>
+          <t xml:space="preserve">  включать   телевизор  </t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -14148,7 +14148,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t xml:space="preserve">   выключать     телевизор   .</t>
+          <t xml:space="preserve">  выключать   телевизор  </t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -14163,7 +14163,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t xml:space="preserve">   пауза   .</t>
+          <t xml:space="preserve">  пауза  </t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -14178,7 +14178,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t xml:space="preserve">   возобновлять   .</t>
+          <t xml:space="preserve">  возобновлять  </t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -14193,7 +14193,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t xml:space="preserve">   далеко   .</t>
+          <t xml:space="preserve">  далеко  </t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -14208,7 +14208,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t xml:space="preserve">   предыдущий     видео   .</t>
+          <t xml:space="preserve">  предыдущий   видео  </t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -14223,7 +14223,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t xml:space="preserve">   сделать     громко   .</t>
+          <t xml:space="preserve">  сделать   громко  </t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -14238,7 +14238,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t xml:space="preserve">   сделать     тихо   .</t>
+          <t xml:space="preserve">  сделать   тихо  </t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -14253,7 +14253,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     ютуб   .</t>
+          <t xml:space="preserve">  включать   ютуб  </t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -14268,7 +14268,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     трейлер     вено     на     телевизор   .</t>
+          <t xml:space="preserve">  включать   трейлер   вено   на   телевизор  </t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -14283,7 +14283,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     веселый     видео   .</t>
+          <t xml:space="preserve">  включать   веселый   видео  </t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -14298,7 +14298,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t xml:space="preserve">   показывать     клип     linkin     park   .</t>
+          <t xml:space="preserve">  показывать   клип   linkin   park  </t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -14313,7 +14313,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t xml:space="preserve">   включать     новость   .</t>
+          <t xml:space="preserve">  включать   новость  </t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -14328,7 +14328,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t xml:space="preserve">   рассказывать     новость   .</t>
+          <t xml:space="preserve">  рассказывать   новость  </t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -14343,7 +14343,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t xml:space="preserve">   новость     спорт   .</t>
+          <t xml:space="preserve">  новость   спорт  </t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -14358,7 +14358,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t xml:space="preserve">   новость     политика   .</t>
+          <t xml:space="preserve">  новость   политика  </t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -15858,7 +15858,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>покрасить   !</t>
+          <t xml:space="preserve">покрасить  </t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
@@ -15873,7 +15873,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>сделать   !</t>
+          <t xml:space="preserve">сделать  </t>
         </is>
       </c>
       <c r="B1030" t="inlineStr">
@@ -15888,7 +15888,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>распознавать   !</t>
+          <t xml:space="preserve">распознавать  </t>
         </is>
       </c>
       <c r="B1031" t="inlineStr">
@@ -15903,7 +15903,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>сказать   !</t>
+          <t xml:space="preserve">сказать  </t>
         </is>
       </c>
       <c r="B1032" t="inlineStr">
@@ -15918,7 +15918,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>уходить   !</t>
+          <t xml:space="preserve">уходить  </t>
         </is>
       </c>
       <c r="B1033" t="inlineStr">
@@ -15933,7 +15933,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>приходить   !</t>
+          <t xml:space="preserve">приходить  </t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
@@ -15948,7 +15948,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>отходить   !</t>
+          <t xml:space="preserve">отходить  </t>
         </is>
       </c>
       <c r="B1035" t="inlineStr">
@@ -15963,7 +15963,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>стоять   !</t>
+          <t xml:space="preserve">стоять  </t>
         </is>
       </c>
       <c r="B1036" t="inlineStr">
@@ -15978,7 +15978,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>идти   !</t>
+          <t xml:space="preserve">идти  </t>
         </is>
       </c>
       <c r="B1037" t="inlineStr">
@@ -15993,7 +15993,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>назать   !</t>
+          <t xml:space="preserve">назать  </t>
         </is>
       </c>
       <c r="B1038" t="inlineStr">
@@ -16008,7 +16008,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>давать   !</t>
+          <t xml:space="preserve">давать  </t>
         </is>
       </c>
       <c r="B1039" t="inlineStr">
@@ -16023,7 +16023,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>выбирать   !</t>
+          <t xml:space="preserve">выбирать  </t>
         </is>
       </c>
       <c r="B1040" t="inlineStr">
@@ -16038,7 +16038,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>быть   !</t>
+          <t xml:space="preserve">быть  </t>
         </is>
       </c>
       <c r="B1041" t="inlineStr">
@@ -16053,7 +16053,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>молчать   !</t>
+          <t xml:space="preserve">молчать  </t>
         </is>
       </c>
       <c r="B1042" t="inlineStr">
@@ -16068,7 +16068,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>сказать   !</t>
+          <t xml:space="preserve">сказать  </t>
         </is>
       </c>
       <c r="B1043" t="inlineStr">
@@ -16098,7 +16098,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>знать   !</t>
+          <t xml:space="preserve">знать  </t>
         </is>
       </c>
       <c r="B1045" t="inlineStr">
@@ -16113,7 +16113,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>стоять   !</t>
+          <t xml:space="preserve">стоять  </t>
         </is>
       </c>
       <c r="B1046" t="inlineStr">
@@ -16128,7 +16128,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>хотеть   !</t>
+          <t xml:space="preserve">хотеть  </t>
         </is>
       </c>
       <c r="B1047" t="inlineStr">
@@ -16143,7 +16143,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>иметь   !</t>
+          <t xml:space="preserve">иметь  </t>
         </is>
       </c>
       <c r="B1048" t="inlineStr">
@@ -16158,7 +16158,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>видеть   !</t>
+          <t xml:space="preserve">видеть  </t>
         </is>
       </c>
       <c r="B1049" t="inlineStr">
@@ -17403,7 +17403,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>говорить   !</t>
+          <t xml:space="preserve">говорить  </t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
@@ -17418,7 +17418,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>сказать   !</t>
+          <t xml:space="preserve">сказать  </t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
@@ -18288,7 +18288,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>алькатрас   может ?</t>
+          <t>алькатрас  может ?</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
@@ -18303,7 +18303,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>балалайка   восьмиугольный , не ?</t>
+          <t>балалайка  восьмиугольный не ?</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
@@ -18333,7 +18333,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>фургон   блять ?</t>
+          <t>фургон  блять ?</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
@@ -18348,7 +18348,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>за   что ?</t>
+          <t>за  что ?</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
@@ -18393,7 +18393,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>за   что ?</t>
+          <t>за  что ?</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
@@ -18408,7 +18408,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>бля   рил   чело   жалоба   кидать   на   он ?</t>
+          <t>бля  рил  чело  жалоба  кидать  на  он ?</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
@@ -18423,7 +18423,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>чкт ,  мочь   фалкон   забанить ?</t>
+          <t>чкт  мочь  фалкон  забанить ?</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
@@ -18453,7 +18453,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>а   может   ты ?</t>
+          <t>а  может  ты ?</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
@@ -18468,7 +18468,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>чат ,  мочь   фалкон   забанить ?</t>
+          <t>чат  мочь  фалкон  забанить ?</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
@@ -18483,7 +18483,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>неадекват   конечно ...   воспитываться  ,  не ?</t>
+          <t>неадекват  конечно  воспитываться  не ?</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
@@ -18513,7 +18513,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>как   этот   игра   называться ?</t>
+          <t>как  этот  игра  называться ?</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -18558,7 +18558,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>как   этот   игра   называться ?</t>
+          <t>как  этот  игра  называться ?</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
@@ -18573,7 +18573,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>cmonbruh   ?</t>
+          <t>cmonbruh  ?</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
@@ -18648,7 +18648,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>так   руди   кто ?</t>
+          <t>так  руди  кто ?</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
@@ -18663,7 +18663,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>вы   уже   встречаться ?</t>
+          <t>вы  уже  встречаться ?</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
@@ -18678,7 +18678,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>кто   руди ?</t>
+          <t>кто  руди ?</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
@@ -18693,7 +18693,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>соня   кто ??</t>
+          <t>соня  кто ??</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
@@ -18708,7 +18708,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>кто   рюди   ?</t>
+          <t>кто  рюди  ?</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
@@ -18723,7 +18723,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>кто   руди ?</t>
+          <t>кто  руди ?</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
@@ -18738,7 +18738,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>кто   руди ????????</t>
+          <t>кто  руди ????????</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
@@ -18753,7 +18753,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>так   а   руди   то   кто ,  что   за   слово   быть ,  собака ?</t>
+          <t>так  а  руди  то  кто  что  за  слово  быть  собака ?</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
@@ -18768,7 +18768,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>кто   руди ?</t>
+          <t>кто  руди ?</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
@@ -18783,7 +18783,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t xml:space="preserve">  кто   рудие ?</t>
+          <t xml:space="preserve"> кто  рудие ?</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
@@ -18798,7 +18798,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>соня   кто    ?</t>
+          <t>соня  кто  ?</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
@@ -18813,7 +18813,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>кто   сонечка ???</t>
+          <t>кто  сонечка ???</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
@@ -18828,7 +18828,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>кто   руди ?</t>
+          <t>кто  руди ?</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
@@ -18843,7 +18843,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>кто   руди ?</t>
+          <t>кто  руди ?</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
@@ -18858,7 +18858,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>в   твой   адресс   я   что-то   конкретный   написать ?</t>
+          <t>в  твой  адресс  я  чтото  конкретный  написать ?</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
@@ -18873,7 +18873,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>кто   соня   то ?</t>
+          <t>кто  соня  то ?</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
@@ -18888,7 +18888,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>ксто   соня ?</t>
+          <t>ксто  соня ?</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
@@ -18903,7 +18903,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>соня   кто ?</t>
+          <t>соня  кто ?</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
@@ -18918,7 +18918,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>кто   руди ??</t>
+          <t>кто  руди ??</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
@@ -18933,7 +18933,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>кто   соня   то   в   итог ?</t>
+          <t>кто  соня  то  в  итог ?</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
@@ -18948,7 +18948,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>кто   сонечка ?</t>
+          <t>кто  сонечка ?</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
@@ -18963,7 +18963,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>кто   соня ?</t>
+          <t>кто  соня ?</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
@@ -18978,7 +18978,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>кто   соня ?</t>
+          <t>кто  соня ?</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
@@ -18993,7 +18993,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>кто   соняша ?</t>
+          <t>кто  соняша ?</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
@@ -19008,7 +19008,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>кто   руди ?</t>
+          <t>кто  руди ?</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
@@ -19023,7 +19023,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>кто   соня ?</t>
+          <t>кто  соня ?</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
@@ -19038,7 +19038,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>кто   соня   ?</t>
+          <t>кто  соня  ?</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
@@ -19053,7 +19053,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>кто   соня ?</t>
+          <t>кто  соня ?</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
@@ -19068,7 +19068,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>кто   соня ?</t>
+          <t>кто  соня ?</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
@@ -19083,7 +19083,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>кто   соня ??????</t>
+          <t>кто  соня ??????</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
@@ -19098,7 +19098,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>они   гипс   уже   смотреть ?   быть   клип ?</t>
+          <t>они  гипс  уже  смотреть ?  быть  клип ?</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
@@ -19113,7 +19113,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>кто   соня ??</t>
+          <t>кто  соня ??</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
@@ -19128,7 +19128,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>а   ради   то   кто ?</t>
+          <t>а  ради  то  кто ?</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
@@ -19143,7 +19143,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>кто   руди ?</t>
+          <t>кто  руди ?</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
@@ -19158,7 +19158,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>так   с   кто   он   ты   ассоцировать   ?</t>
+          <t>так  с  кто  он  ты  ассоцировать  ?</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
@@ -19173,7 +19173,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>кто   ср + онечка ??</t>
+          <t>кто  ср онечка ??</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
@@ -19188,7 +19188,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>кто   соня ?</t>
+          <t>кто  соня ?</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
@@ -19203,7 +19203,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>кто   соня ?</t>
+          <t>кто  соня ?</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
@@ -19218,7 +19218,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>кто   соня ?</t>
+          <t>кто  соня ?</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
@@ -19233,7 +19233,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>кто   соня ?</t>
+          <t>кто  соня ?</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
@@ -19248,7 +19248,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>кто   она ?</t>
+          <t>кто  она ?</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
@@ -19263,7 +19263,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>кто   соня   ?</t>
+          <t>кто  соня  ?</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
@@ -19278,7 +19278,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>они   слепок   ебучий   сделалим   ?</t>
+          <t>они  слепок  ебучий  сделалим  ?</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
@@ -19293,7 +19293,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>кто   соня ?</t>
+          <t>кто  соня ?</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
@@ -19308,7 +19308,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t xml:space="preserve">  они   уже   встречаться ?</t>
+          <t xml:space="preserve"> они  уже  встречаться ?</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
@@ -19338,7 +19338,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>а   нахуй   ты   фалкон   отмечать   постоянно ?</t>
+          <t>а  нахуй  ты  фалкон  отмечать  постоянно ?</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
@@ -19368,7 +19368,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>кто-то   балл   считать   вообще ?</t>
+          <t>ктото  балл  считать  вообще ?</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
@@ -19383,7 +19383,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>комьюнити   волк   на   место ?</t>
+          <t>комьюнити  волк  на  место ?</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
@@ -19398,7 +19398,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>орел   на   место ???</t>
+          <t>орел  на  место ???</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
@@ -19413,7 +19413,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>чо   они   в   итог   сделать   с   этот   хуйня   ?</t>
+          <t>чо  они  в  итог  сделать  с  этот  хуйня  ?</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
@@ -19443,7 +19443,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>совсем   нажираться   за   праздник ?</t>
+          <t>совсем  нажираться  за  праздник ?</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
@@ -19458,7 +19458,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>к   какой   именно ?</t>
+          <t>к  какой  именно ?</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
@@ -19473,7 +19473,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t xml:space="preserve">  а   да ?</t>
+          <t xml:space="preserve"> а  да ?</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
@@ -19488,7 +19488,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t xml:space="preserve">  это   уже   официально ?</t>
+          <t xml:space="preserve"> это  уже  официально ?</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
@@ -19503,7 +19503,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>ты   снова   с   леха   дружить ?</t>
+          <t>ты  снова  с  леха  дружить ?</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
@@ -19518,7 +19518,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t xml:space="preserve">  а   ошибка   сколько   должно   быть ?</t>
+          <t xml:space="preserve"> а  ошибка  сколько  должно  быть ?</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
@@ -19533,7 +19533,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>когда   правый   получать ?</t>
+          <t>когда  правый  получать ?</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
@@ -19548,7 +19548,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t xml:space="preserve">  а   ты   для   что   вообще ?</t>
+          <t xml:space="preserve"> а  ты  для  что  вообще ?</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
@@ -19563,7 +19563,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t xml:space="preserve">  по   работа ?</t>
+          <t xml:space="preserve"> по  работа ?</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
@@ -19578,7 +19578,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t xml:space="preserve">  что   запрещать   на   черный   зона ?</t>
+          <t xml:space="preserve"> что  запрещать  на  черный  зона ?</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
@@ -19593,7 +19593,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t xml:space="preserve">  а   да ?</t>
+          <t xml:space="preserve"> а  да ?</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
@@ -19608,7 +19608,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t xml:space="preserve">  это   уже   официально ?</t>
+          <t xml:space="preserve"> это  уже  официально ?</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
@@ -19623,7 +19623,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>за   что   воевать   пацан   с   украинский   сторона ?</t>
+          <t>за  что  воевать  пацан  с  украинский  сторона ?</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
@@ -19638,7 +19638,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>они   же   явно   понимать ,  что   военный   победа   у   они   не   быть ,  смысл   жизнь   отдавать ?</t>
+          <t>они  же  явно  понимать  что  военный  победа  у  они  не  быть  смысл  жизнь  отдавать ?</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
@@ -19653,7 +19653,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t xml:space="preserve">  @ love _ rov   на   кто   россия   за   30   год   нападывать ?   кроме   украина ?</t>
+          <t xml:space="preserve">  love rov  на  кто  россия  за   год  нападывать ?  кроме  украина ?</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
@@ -19668,7 +19668,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>тоедать   мирный   решение   этот   вопрос   не   существовать ?</t>
+          <t>тоедать  мирный  решение  этот  вопрос  не  существовать ?</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
@@ -19683,7 +19683,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t xml:space="preserve">  а   с   какой   фига   россия   давать   ультиматум   украина ?</t>
+          <t xml:space="preserve"> а  с  какой  фига  россия  давать  ультиматум  украина ?</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
@@ -19698,7 +19698,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>а   русский   пацан   за   что   воевать   на   чужой   земля ?</t>
+          <t>а  русский  пацан  за  что  воевать  на  чужой  земля ?</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
@@ -19713,7 +19713,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>так   и   что ?</t>
+          <t>так  и  что ?</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
@@ -19728,7 +19728,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>какой   россия   дело   до   украинский   крым   и   донбасс ?</t>
+          <t>какой  россия  дело  до  украинский  крым  и  донбасс ?</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
@@ -19743,7 +19743,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>слушать ,  а   другой   пример   нет ?</t>
+          <t>слушать  а  другой  пример  нет ?</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
@@ -19758,7 +19758,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>у   япония   другой   менталитет ?</t>
+          <t>у  япония  другой  менталитет ?</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
@@ -19773,7 +19773,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>а   когда   ты   она   завоевывать ?</t>
+          <t>а  когда  ты  она  завоевывать ?</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
@@ -19788,7 +19788,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t xml:space="preserve">  в   1999   г   ты   сколько   быть ?</t>
+          <t xml:space="preserve"> в   г  ты  сколько  быть ?</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
@@ -19803,7 +19803,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t xml:space="preserve">  они   послушать   жириновский   и   списывать   домашка ?</t>
+          <t xml:space="preserve"> они  послушать  жириновский  и  списывать  домашка ?</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
@@ -19818,7 +19818,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>карелия  -  автономный   республика ?</t>
+          <t>карелия  автономный  республика ?</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
@@ -19833,7 +19833,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>а   почему   у   они   наступательный   вооружение ?</t>
+          <t>а  почему  у  они  наступательный  вооружение ?</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
@@ -19848,7 +19848,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>а   че   нато   в   югославия   или   сирия   обороняться   ?</t>
+          <t>а  че  нато  в  югославия  или  сирия  обороняться  ?</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
@@ -19863,7 +19863,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>оифгеть   вопрос .   а   у   россия   почему   наступательный   вооружение ?</t>
+          <t>оифгеть  вопрос  а  у  россия  почему  наступательный  вооружение ?</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
@@ -19878,7 +19878,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>почему   у   оборонительный   альянс   наступательный   вооружение ?</t>
+          <t>почему  у  оборонительный  альянс  наступательный  вооружение ?</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
@@ -19893,7 +19893,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>кто   такой   россия ?</t>
+          <t>кто  такой  россия ?</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
@@ -19908,7 +19908,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t xml:space="preserve">  чей   крым   браз   ?</t>
+          <t xml:space="preserve"> чей  крым  браз  ?</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
@@ -19923,7 +19923,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>ты   издеваться ?</t>
+          <t>ты  издеваться ?</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
@@ -19938,7 +19938,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>кроме   украина ?</t>
+          <t>кроме  украина ?</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
@@ -19953,7 +19953,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>на   кто   россия   за   30   год   нападывать ?</t>
+          <t>на  кто  россия  за   год  нападывать ?</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
@@ -19968,7 +19968,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>ты   издеваться ?</t>
+          <t>ты  издеваться ?</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
@@ -19983,7 +19983,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>вы   на   карта   давно   смотреть ?</t>
+          <t>вы  на  карта  давно  смотреть ?</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
@@ -19998,7 +19998,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>а   че   нато   в   югославия   или   сирия   обороняться   ?</t>
+          <t>а  че  нато  в  югославия  или  сирия  обороняться  ?</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
@@ -20013,7 +20013,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>а   у   россия   почему   наступательный   вооружение ?</t>
+          <t>а  у  россия  почему  наступательный  вооружение ?</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
@@ -20028,7 +20028,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t xml:space="preserve">  кто   такой   россия ?</t>
+          <t xml:space="preserve"> кто  такой  россия ?</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
@@ -20043,7 +20043,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>вы   на   карта   давно   смотреть ?</t>
+          <t>вы  на  карта  давно  смотреть ?</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
@@ -20058,7 +20058,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t xml:space="preserve">  чей   крым   браз   ?</t>
+          <t xml:space="preserve"> чей  крым  браз  ?</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
@@ -20073,7 +20073,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>ты   издеваться ?</t>
+          <t>ты  издеваться ?</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
@@ -20088,7 +20088,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>кроме   украина ?</t>
+          <t>кроме  украина ?</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
@@ -20103,7 +20103,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>на   кто   россия   за   30   год   нападывать ?</t>
+          <t>на  кто  россия  за   год  нападывать ?</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
@@ -20112,6 +20112,3696 @@
         </is>
       </c>
       <c r="C1312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>как вы много нравиться работать дом или в офис? почему? хотеть бы вы совмещать удаленка и офисный работа и если да то как?</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>что для вы самый сложный в удаленный работа? а самый простой?</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>у вы дома быть свой “офис” отдельный рабочий место?</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>показывать мы свой “удалять” рабочий место?</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>где вы часто все работать дома? за рабочий стол? за кухонный стол? на балкон? на диван? в любить кресло?</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>давать начистоту как часто вы работать лежать в постель?</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>как выглядеть ваш утренний сбор когда вы работать дома и не нужно прихорашиваться для выход в офис?</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>называть ваш главный лайфхак чтобы не отвлекаться во время работа из дом?</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>как вы сохранять продуктивность и мотивация работать удаленный?</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>как выглядеть ваш рабочий аутфит наряд для удаленка? носить ли гавайский шорты под классический рубашка потому что на видеосвязь все равный не видно низ?</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>сколько чашка кофечай в день вы выпивать?</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>вы жаворонок или сова? когда удобно все работать и получаться ли организовывать удобный график удаленный?</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>как думать какой образ можно улучшать наш созвон?</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>любить ли пить кофеиновый напиток чай кофе кол во время работа?</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>какой стоять фильм или сериал вы смотреть в последний время?</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>какой из прочитывать книга вы считать хороший и почему?</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>а что из профессиональный литература считать хороший?</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>если бы вы мочь осваивать один новый hard skill в близкий время что бы это быть?</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>если бы вы мочь развивать один новый soft skill в близкий время что бы это быть?</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>любить ли вы заниматься спорт? какой вид спорт вы нравиться много все?</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>если бы вы мочь написать книга какой жанр вы бы выбирать? фэнтези? триллер? роман? исторический беллетристика? профессиональный литература?</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>наступать зомбиапокалипсис собирать для себя команда из три человек почему именно этот человек вы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>какой эмодзистикер вы использовать часто все?</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>рассказывать про ваш плохойнеуместный наряд?</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>а про плохой стрижка?</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>какой у вы быть любимый актерактриса в детство?</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>сравнивать ли вы с ктото из знаменитость? с кто?</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>если бы вы мочь вернуть какойлибо модный тренд что бы это быть?</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>какой вид транспорт вы любить много все?</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> представлять что вести собственный вечерний токшоу кто бы вы приглашать в качество первый гость?</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>представлять что по ваш биография снимать фильм какой бы это быть жанр и кто бы сыграть вы?</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>хотеть ли вы становиться знаменитый? в какой сфера?</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>любить петь в караоке? какой ваш любимый песня?</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>что из еда вы терпеть не мочь в детство? а как сейчас к это относиться?</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>если бы вы приходиться есть один блюдо до конец жизнь что бы это быть?</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>представлять что у вы быть выбор оставаться на необитаемый остров один или со свой злой враг что бы вы выбирать и почему?</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>если бы инопланетянин прилетать на земля завтра и предлагать бы вы улетать  с они вы бы соглашаться?</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>е е е е год какой десятилетие вы любить много все и почему?</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>что из купить в этот год вы любить много все?</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>какой самый хороший совет вы когдалибо получать?</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>что повашему относиться к самый удивительный научный открытие?</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>о что вы мечтать?</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>если бы вы участвовать в соревнование тип миссмистер мир что бы вы представлять на конкурс талант?</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>как бы вы называть свой автобиография?</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>представлять что вы очень богатый и вы больше не нужно работать что бы вы заниматься?</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>если бы вы приходиться удалять весь приложение кроме х со свой смартфон что бы вы оставлять и почему?</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>какой ваш любимый волшебный или мифологический животное?</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>кто ваш любимый сказочный персонаж? хотеть бы вы оказываться на егоее место?</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>рассказывать о домквартира ваш мечта</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>представлять что вы собираться в кругосветный плавание как бы вы называть свой корабль и почему?</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>если бы вы быть олимпийский спортсмен какой бы это быть вид спорт и почему?</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>кто вы считать хороший в мир бизнес и почему?</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>рассказывать о ваш плохой работа</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>с кто из известный человек за весь история вы бы хотеть подружиться и почему?</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>если бы у вы быть суперсил то какой и почему?</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>какой бы музыкальный группа или исполнитель вы хотеть бы позвать к себя на праздник?</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>кто вы хотеть становиться в детство?</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>быть ли у вы любимый традиция или праздник? что это?</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>какой вымышленный мир или место вы бы хотеть посещать?</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>что вы любить быть на завтрак?</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>какой ваш любимый время сутки и почему?</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>кофе или чай?</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>телепортация или полет?</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>какой ваш любимый сериал и почему?</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>если бы у вы быть машина время вы бы отправляться в прошлое или в будущее?</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>как вы думать вы быть бы комфортно проживать без свой смартфон сутки?</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>какой ваш любимый десерт?</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>какой игра вы любить в детство?</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>вы путешественник или домосед?</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>если бы вы не работать тот кто работать сейчас кто бы вы становиться?</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>какой ваш любимый городстрана из тот что вы успевать посещать?</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>что бы вы сделать если бы встречать свой кумир?</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>быть ли у вы так называть “bucket list” – список вещь который нужно успевать сделать в жизнь? что в он самый важныйинтересный?</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>рассказывать какойто забавный факт о себя</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>какой ваш любимый блюдо и почему?</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>играть ли вы на какойто музыкальный инструмент? на какой?</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>вы много любить кошка или собака?</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>сколько язык вы знать?</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>какой самый странный еда вы когдалибо есть?</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>что самый необычный вы приходиться делать?</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>какой обои у вы на телефонкомпьютер?</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>представлять что вы мочь выбирать неограниченный запас какойто продукт на весь жизнь что вы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>какой время год вы любить много все и почему?</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>вы любить петьтанцевать?</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>что из фрукт и овощ вы любить много все?</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>если бы вы мочь пообщаться с любой персонаж сказкафильм кто бы вы выбирать и почему?</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">если бы вы мочь пожить в любой страна на протяжение год что бы вы выбирать и почему? </t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>если бы вы мочь совершать какойто преступление который сходить бы вы с рука  что бы вы сделать и почему?</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>если бы вы мочь снова увидеть какойто фильм впервые что бы вы выбирать и почему?</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>если бы вы мочь жить в любой страна где бы вы жить?</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>если бы вы мочь выбирать два известный человек чтобы поужинать с они кто бы вы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>если бы вы мочь быть животный кто бы вы быть и почему?</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>если бы вы мочь поменяться место с ктолибо в мир кто бы это быть и почему?</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>если бы вы собираться менять имя как бы вы называть себя?</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>если бы  у вы быть персональный ассистент что бы вы делегировать он?</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>если бы вы мочь мгновенно становиться эксперт в чтото что бы это быть?</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>если бы вы гарантировать чтото предоставлять кроме деньги что бы вы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>если бы вы приходиться преподавать какойто один дисциплина что бы это быть?</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>если бы вы мочь мгновенно выучивать какойто язык кроме английский что бы вы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>если бы вы мочь становиться бессмертный в какой возраст вы бы останавливать старение и почему?</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>если бы вы участвовать в реалитишоу какой шоу вы бы выбирать и почему?</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>если бы вы мочь исключать один вещь из свой распорядок день что бы это быть и почему?</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>если бы вы мочь полететь на марс вы бы полететь? почему да почему нет?</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>если бы вы мочь телепортироваться прямо сейчас в какой место вы бы переноситься и почему?</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>если бы вы мочь написать книга который гарантированный становиться бестселлер о что бы вы написать?</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать жить в океан или на луна?</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать потерять весь свой деньги или весь свой фотография?</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать уметь летать или становиться невидимый?</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать жить там где всегда холодно или всегда жарко?</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать всегда немного опаздывать или приходить чуть рано?</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать отказываться от свой смартфон или компьютер?</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать жить без тепло и переменный ток или без социальный сеть?</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать быть самый смешной или самый умный человек в комната?</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать бегать со скорость кмчас или летать со скорость кмчас?</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать быть супергерой или хороший шефповар в мир?</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать быть олимпийский золотой призер или космонавт?</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>если бы вы приходиться преподавать какойто один дисциплина что бы это быть?</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>если бы вы мочь мгновенно выучивать какойто язык кроме английский что бы вы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>если бы вы мочь становиться бессмертный в какой возраст вы бы останавливать старение и почему?</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>если бы вы участвовать в реалитишоу какой шоу вы бы выбирать и почему?</t>
+        </is>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>если бы вы мочь исключать один вещь из свой распорядок день что бы это быть и почему?</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>если бы вы мочь полететь на марс вы бы полететь? почему да почему нет?</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>если бы вы мочь телепортироваться прямо сейчас в какой место вы бы переноситься и почему?</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>если бы вы мочь написать книга который гарантированный становиться бестселлер о что бы вы написать?</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать жить в океан или на луна?</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать потерять весь свой деньги или весь свой фотография?</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать уметь летать или становиться невидимый?</t>
+        </is>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать жить там где всегда холодно или всегда жарко?</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать всегда немного опаздывать или приходить чуть рано?</t>
+        </is>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать отказываться от свой смартфон или компьютер?</t>
+        </is>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать жить без тепло и переменный ток или без социальный сеть?</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать быть самый смешной или самый умный человек в комната?</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать бегать со скорость кмчас или летать со скорость кмчас?</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать быть супергерой или хороший шефповар в мир?</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать быть олимпийский золотой призер или космонавт?</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>вы бы предпочитать быть олимпийский золотой призер или космонавт?</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> у вы там быть «коллега» партнер сосед по комната брат сестра родитель домашний животное рядом?</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ваш рабочий график изменяться изза введение удаленный работа?</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> как вы много нравиться работать удаленный или в офис?</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой у вы любимый аксессуар для работа из дом?</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой напиток вы предпочитать когда работать дома? кофе? чай?</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> у вы дома быть место где вы работаться наиболее продуктивно?</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы мочь модернизировать свой среда для работа из дом что бы вы улучшать?</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> каков ваш утренний распорядок?</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> вы часто работать в пижама?</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> у вы брат и сестра? вы старший средний или младший ребенок в семья?</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> где вы вырастать?</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> у вы в детство быть домашний животное? вы хотеть иметь домашний животное?</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> вы заниматься спорт в детство? заниматься ли вы какойнибудь вид спорт сейчас?</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> вы говорить на другой язык?</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый место в мир?</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой быть ваш первый работа?</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой мультфильм быть ваш любимый в детство? какой у вы быть любимый персонаж мультфильм? если он быть из другой мультфильм то почему?</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> кто вдохновлять вы много все в жизнь?</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой семейный традиция вы бы хотеть передавать ребенок?</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой совет давать вы родитель бабушка или дедушка который вы хотеть бы поделиться?</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой предмет быть ваш любимый в школа?</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> быть ли у вы в детство воображать друг? кто это быть такой?</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> вы когданибудь принимать за знаменитость?</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> кто быть самый известный человек который вы когдалибо встречать? рассказывать как это происходить</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> в какой удовольствие вы никак не мочь себя отказывать?</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой у вы быть самый нелепый страх в детство?</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой у вы сейчас обои стоять на рабочий стол или на мобильный телефон? почему вы выбирать именно такой картинка?</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> рассказывать о самый плохой дно когда все валиться из рука</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы давать имя свой автомобиль как бы вы он называть?</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый детский шуткакаламбур?</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы назначать ведущий токшоу какой шоу вы бы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой новый год вы встречать хорошо все? а плохой все?</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> рассказывать о неловкий случай который с вы происходить</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> изза что у вы в последний раз быть неприятность?</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> как бы вы озаглавливать свой автобиография?</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы мочь добавлять термин в словарь какой слово вы бы добавлять и что бы оно означать?</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы мочь вернуть какойнибудь модный тенденция или устаревать жаргонный выражение что бы это быть?</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы приходиться весь оставаться жизнь разговаривать как персонаж мультфильм кто бы вы выбирать? изображать он</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой быть самый плохой совет который вы когдалибо давать?</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы приходиться съедать карандаш какой цвет вы бы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой книга вы сейчас читать? какой ваш любимый книга?</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый телепередача?</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый фильм?</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый песня?</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой быть первый концерт который вы посещать? какой концерт быть хороший?</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы оказываться на необитаемый остров какой книга или предмет взять бы с себя?</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы доводиться поужинать с какойлибо исторический фигура кто бы это быть? а если с ктото из ныне жить знаменитость?</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой быть ваш самый хороший подарок? а подарок который дарить вы сам?</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> у вы быть скрытый талант?</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> кто вы хотеть становиться в детство когда вырастать?</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы у вы быть возможность исполнять три желание что бы вы загадывать?</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы выигрывать миллион доллар что бы вы сделать прежде все?</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> у вы быть хобби?</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы в сутки быть дополнительный час что бы вы сделать?</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой музыка вы любить?</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> вы много любить собака или кошка? или и тот и другой?</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой пункт быть в ваш список дело?</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> как вы думать в какой игровой телешоу вы мочь бы побеждать?</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы мочь использовать только один смайлик до конец жизнь то какой?</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый цитата из фильм?</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> что вы считать совершенно переоценивать?</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы быть спортсмен какой песня вы бы выбирать для выход на ринг?</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой книга вы хотеть бы перечитывать как будто в первый раз?</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> называть фильм который по ваш мнение должный иметь продолжение</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы нужно быть прямо сейчас отправлять генеральный директор смайлик по электронный почта какой бы вы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> о что вы первый дело подумать когда просыпаться сегодня утро?</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой день быть самый хороший в ваш жизнь?</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы на земля высаживаться инопланетянин с кто бы вы посоветовать они поговорить?</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> как вы считать хотдог — это бутерброд?</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый туристический направление?</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый место?</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> вы когданибудь выезжать за граница?</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> гора или океан?</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> снег или песок?</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> куда вы отправляться во время первый свой путешествие который вы помнить?</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> что вы предпочитать заниматься когда никуда не выезжать?</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы приходиться переезжать в другой страна какой вы бы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый еда?</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый начинка для пицца?</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый сорт мороженое?</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый напиток для неформальный общение?</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы мочь давать название коктейль как бы вы он называть?</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> острый или сладкий?</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый ресторан быстрый питание?</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> быть ли такой что еда не понравиться вы на первый взгляд но вы изменять свой мнение когда она попробовать?</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> что бы вы выбирать отдых на пляж или путешествие с приключение?</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> что бы вы выбирать быть в команда мститель или в лига справедливость?</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> что бы вы выбирать сниматься в реалитишоу про любовь или про приключение?</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> что бы вы выбирать иметь особенный музыкальный тема для свой жизнь или саундтрек постоянно играть на задний план?</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> что бы вы выбирать становиться супергерой или хороший в мир повар?</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> что бы вы выбирать участвовать в олимпийский игра или снимать фильм номинировать на «оскар»?</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> что бы вы выбирать спеть караоке с начальник отдел или принимать участие в групповой звонок с генеральный директор и ваш родитель?</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы приходиться жить в видеоигра какой бы вы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы мочь обладать какойнибудь суперспособность то какой именно?</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой один слово вы хотеть бы убирать из словарь?</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы мочь становиться животное кто бы вы быть?</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы смочь управлять один из стихия воздух вода земля или огонь какой бы вы выбирать и почему?</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы приходиться жить в диснеевский фильм какой бы вы выбирать?</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы мочь посылать сообщение весь мир то какой?</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы мочь посмотреть лишь один фильм до конец жизнь какой это быть бы фильм?</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы мочь слушать только один альбом до конец жизнь то какой?</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> если бы вы быть картофель как бы вы хотеть быть приготавливать?</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> у вы быть минута чтобы составлять план действие в случай зомбиапокалипсис</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой ваш любимый местный ресторан и почему?</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> что вы всегда хотеть сделать но пока не сделать? и почему не сделать?</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> когда вы в последний раз делать чтото впервые?</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> что вы делать для борьба со стресс?</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой быть самый невероятный событие который происходить с вы в другой страна?</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> рассказывать о себя чтонибудь такой что удивлять бы даже тот человек который вы знать</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> какой событие в жизнь заставлять вы изменять ваш система ценность</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1558" t="n">
         <v>1</v>
       </c>
     </row>
